--- a/BalanceSheet/WEC_bal.xlsx
+++ b/BalanceSheet/WEC_bal.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AN37"/>
+  <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -113,6 +113,7 @@
     <col min="38" max="38" bestFit="1" customWidth="1" width="16.5"/>
     <col min="39" max="39" bestFit="1" customWidth="1" width="16.5"/>
     <col min="40" max="40" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="41" max="41" bestFit="1" customWidth="1" width="16.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -122,120 +123,123 @@
         </is>
       </c>
       <c r="B1" s="2">
+        <v>44286.0</v>
+      </c>
+      <c r="C1" s="2">
         <v>44196.0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>44104.0</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>44012.0</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43921.0</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43830.0</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>43738.0</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>43646.0</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>43555.0</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>43465.0</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>43373.0</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>43281.0</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>43190.0</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>43100.0</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>43008.0</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>42916.0</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>42825.0</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>42735.0</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>42643.0</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>42551.0</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="2">
         <v>42460.0</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <v>42369.0</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X1" s="2">
         <v>42277.0</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Y1" s="2">
         <v>42185.0</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Z1" s="2">
         <v>42094.0</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AA1" s="2">
         <v>42004.0</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AB1" s="2">
         <v>41912.0</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AC1" s="2">
         <v>41820.0</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AD1" s="2">
         <v>41729.0</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AE1" s="2">
         <v>41639.0</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AF1" s="2">
         <v>41547.0</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AG1" s="2">
         <v>41455.0</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AH1" s="2">
         <v>41364.0</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AI1" s="2">
         <v>41274.0</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AJ1" s="2">
         <v>41182.0</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AK1" s="2">
         <v>41090.0</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AL1" s="2">
         <v>40999.0</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AM1" s="2">
         <v>40908.0</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AN1" s="2">
         <v>40816.0</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AO1" s="2">
         <v>40724.0</v>
       </c>
     </row>
@@ -246,120 +250,123 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
+        <v>26100000.0</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>25000000.0</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>13000000.0</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>13000000.0</v>
       </c>
       <c r="E2" s="0" t="n">
+        <v>13000000.0</v>
+      </c>
+      <c r="F2" s="0" t="n">
         <v>15000000.0</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="G2" s="0" t="n">
         <v>38000000.0</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="H2" s="0" t="n">
         <v>20000000.0</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="I2" s="0" t="n">
         <v>37900000.0</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="J2" s="0" t="n">
         <v>30600000.0</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="K2" s="0" t="n">
         <v>84500000.0</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="L2" s="0" t="n">
         <v>14500000.0</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="M2" s="0" t="n">
         <v>29800000.0</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="N2" s="0" t="n">
         <v>48100000.0</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="O2" s="0" t="n">
         <v>38900000.0</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="P2" s="0" t="n">
         <v>18100000.0</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="Q2" s="0" t="n">
         <v>36500000.0</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="R2" s="0" t="n">
         <v>45700000.0</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="S2" s="0" t="n">
         <v>37500000.0</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="T2" s="0" t="n">
         <v>25000000.0</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="U2" s="0" t="n">
         <v>32100000.0</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="V2" s="0" t="n">
         <v>34700000.0</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="W2" s="0" t="n">
         <v>49800000.0</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="X2" s="0" t="n">
         <v>22200000.0</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="Y2" s="0" t="n">
         <v>214400000.0</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Z2" s="0" t="n">
         <v>65200000.0</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="AA2" s="0" t="n">
         <v>61900000.0</v>
       </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AB2" s="0" t="n">
         <v>88700000.0</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AC2" s="0" t="n">
         <v>33400000.0</v>
       </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AD2" s="0" t="n">
         <v>27600000.0</v>
       </c>
-      <c r="AD2" s="0" t="n">
+      <c r="AE2" s="0" t="n">
         <v>26000000.0</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AF2" s="0" t="n">
         <v>18500000.0</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AG2" s="0" t="n">
         <v>21000000.0</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AH2" s="0" t="n">
         <v>24700000.0</v>
       </c>
-      <c r="AH2" s="0" t="n">
+      <c r="AI2" s="0" t="n">
         <v>35600000.0</v>
       </c>
-      <c r="AI2" s="0" t="n">
+      <c r="AJ2" s="0" t="n">
         <v>22500000.0</v>
       </c>
-      <c r="AJ2" s="0" t="n">
+      <c r="AK2" s="0" t="n">
         <v>31000000.0</v>
       </c>
-      <c r="AK2" s="0" t="n">
+      <c r="AL2" s="0" t="n">
         <v>42800000.0</v>
       </c>
-      <c r="AL2" s="0" t="n">
+      <c r="AM2" s="0" t="n">
         <v>59600000.0</v>
       </c>
-      <c r="AM2" s="0" t="n">
+      <c r="AN2" s="0" t="n">
         <v>60600000.0</v>
       </c>
-      <c r="AN2" s="0" t="n">
+      <c r="AO2" s="0" t="n">
         <v>56100000.0</v>
       </c>
     </row>
@@ -370,120 +377,123 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
+        <v>1369900000.0</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>1203000000.0</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="D3" s="0" t="n">
         <v>912000000.0</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="E3" s="0" t="n">
         <v>958000000.0</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1177000000.0</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1177000000.0</v>
       </c>
       <c r="G3" s="0" t="n">
+        <v>1177000000.0</v>
+      </c>
+      <c r="H3" s="0" t="n">
         <v>911800000.0</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="I3" s="0" t="n">
         <v>1004300000.0</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="J3" s="0" t="n">
         <v>1430100000.0</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="K3" s="0" t="n">
         <v>1280900000.0</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="L3" s="0" t="n">
         <v>1017300000.0</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="M3" s="0" t="n">
         <v>1086100000.0</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="N3" s="0" t="n">
         <v>1356800000.0</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="O3" s="0" t="n">
         <v>1350700000.0</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="P3" s="0" t="n">
         <v>948000000.0</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="Q3" s="0" t="n">
         <v>1004300000.0</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="R3" s="0" t="n">
         <v>1191400000.0</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="S3" s="0" t="n">
         <v>1241700000.0</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="T3" s="0" t="n">
         <v>871500000.0</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="U3" s="0" t="n">
         <v>914900000.0</v>
       </c>
-      <c r="U3" s="0" t="n">
+      <c r="V3" s="0" t="n">
         <v>1088100000.0</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="W3" s="0" t="n">
         <v>1028600000.0</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="X3" s="0" t="n">
         <v>844700000.0</v>
       </c>
-      <c r="X3" s="0" t="n">
+      <c r="Y3" s="0" t="n">
         <v>667500000.0</v>
       </c>
-      <c r="Y3" s="0" t="n">
+      <c r="Z3" s="0" t="n">
         <v>437300000.0</v>
       </c>
-      <c r="Z3" s="0" t="n">
+      <c r="AA3" s="0" t="n">
         <v>643400000.0</v>
       </c>
-      <c r="AA3" s="0" t="n">
+      <c r="AB3" s="0" t="n">
         <v>339000000.0</v>
       </c>
-      <c r="AB3" s="0" t="n">
+      <c r="AC3" s="0" t="n">
         <v>404900000.0</v>
       </c>
-      <c r="AC3" s="0" t="n">
+      <c r="AD3" s="0" t="n">
         <v>605800000.0</v>
       </c>
-      <c r="AD3" s="0" t="n">
+      <c r="AE3" s="0" t="n">
         <v>406000000.0</v>
       </c>
-      <c r="AE3" s="0" t="n">
+      <c r="AF3" s="0" t="n">
         <v>299000000.0</v>
       </c>
-      <c r="AF3" s="0" t="n">
+      <c r="AG3" s="0" t="n">
         <v>327300000.0</v>
       </c>
-      <c r="AG3" s="0" t="n">
+      <c r="AH3" s="0" t="n">
         <v>389000000.0</v>
       </c>
-      <c r="AH3" s="0" t="n">
+      <c r="AI3" s="0" t="n">
         <v>285300000.0</v>
       </c>
-      <c r="AI3" s="0" t="n">
+      <c r="AJ3" s="0" t="n">
         <v>347000000.0</v>
       </c>
-      <c r="AJ3" s="0" t="n">
+      <c r="AK3" s="0" t="n">
         <v>297300000.0</v>
       </c>
-      <c r="AK3" s="0" t="n">
+      <c r="AL3" s="0" t="n">
         <v>386900000.0</v>
       </c>
-      <c r="AL3" s="0" t="n">
+      <c r="AM3" s="0" t="n">
         <v>504500000.0</v>
       </c>
-      <c r="AM3" s="0" t="n">
+      <c r="AN3" s="0" t="n">
         <v>314000000.0</v>
       </c>
-      <c r="AN3" s="0" t="n">
+      <c r="AO3" s="0" t="n">
         <v>344900000.0</v>
       </c>
     </row>
@@ -494,120 +504,123 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>44800000.0</v>
+        <v>353500000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-105700000.0</v>
+        <v>529000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-76600000.0</v>
+        <v>573000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>158700000.0</v>
+        <v>468000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>43400000.0</v>
+        <v>391000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
+        <v>550000000.0</v>
+      </c>
+      <c r="H4" s="0" t="n">
         <v>593300000.0</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="I4" s="0" t="n">
         <v>461400000.0</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="J4" s="0" t="n">
         <v>330100000.0</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="K4" s="0" t="n">
         <v>548200000.0</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>608500000.0</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <v>466600000.0</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="N4" s="0" t="n">
         <v>376000000.0</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="O4" s="0" t="n">
         <v>539000000.0</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="P4" s="0" t="n">
         <v>672200000.0</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="Q4" s="0" t="n">
         <v>510000000.0</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="R4" s="0" t="n">
         <v>417100000.0</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="S4" s="0" t="n">
         <v>587600000.0</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="T4" s="0" t="n">
         <v>654300000.0</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="U4" s="0" t="n">
         <v>494500000.0</v>
       </c>
-      <c r="U4" s="0" t="n">
+      <c r="V4" s="0" t="n">
         <v>470700000.0</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="W4" s="0" t="n">
         <v>687000000.0</v>
       </c>
-      <c r="W4" s="0" t="n">
+      <c r="X4" s="0" t="n">
         <v>719800000.0</v>
       </c>
-      <c r="X4" s="0" t="n">
+      <c r="Y4" s="0" t="n">
         <v>562500000.0</v>
       </c>
-      <c r="Y4" s="0" t="n">
+      <c r="Z4" s="0" t="n">
         <v>289700000.0</v>
       </c>
-      <c r="Z4" s="0" t="n">
+      <c r="AA4" s="0" t="n">
         <v>400600000.0</v>
       </c>
-      <c r="AA4" s="0" t="n">
+      <c r="AB4" s="0" t="n">
         <v>379300000.0</v>
       </c>
-      <c r="AB4" s="0" t="n">
+      <c r="AC4" s="0" t="n">
         <v>304300000.0</v>
       </c>
-      <c r="AC4" s="0" t="n">
+      <c r="AD4" s="0" t="n">
         <v>234900000.0</v>
       </c>
-      <c r="AD4" s="0" t="n">
+      <c r="AE4" s="0" t="n">
         <v>329400000.0</v>
       </c>
-      <c r="AE4" s="0" t="n">
+      <c r="AF4" s="0" t="n">
         <v>367600000.0</v>
       </c>
-      <c r="AF4" s="0" t="n">
+      <c r="AG4" s="0" t="n">
         <v>317900000.0</v>
       </c>
-      <c r="AG4" s="0" t="n">
+      <c r="AH4" s="0" t="n">
         <v>266800000.0</v>
       </c>
-      <c r="AH4" s="0" t="n">
+      <c r="AI4" s="0" t="n">
         <v>360700000.0</v>
       </c>
-      <c r="AI4" s="0" t="n">
+      <c r="AJ4" s="0" t="n">
         <v>342100000.0</v>
       </c>
-      <c r="AJ4" s="0" t="n">
+      <c r="AK4" s="0" t="n">
         <v>335000000.0</v>
       </c>
-      <c r="AK4" s="0" t="n">
+      <c r="AL4" s="0" t="n">
         <v>311600000.0</v>
       </c>
-      <c r="AL4" s="0" t="n">
+      <c r="AM4" s="0" t="n">
         <v>382000000.0</v>
       </c>
-      <c r="AM4" s="0" t="n">
+      <c r="AN4" s="0" t="n">
         <v>368100000.0</v>
       </c>
-      <c r="AN4" s="0" t="n">
+      <c r="AO4" s="0" t="n">
         <v>339100000.0</v>
       </c>
     </row>
@@ -618,120 +631,123 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
+        <v>347200000.0</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>327000000.0</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="D5" s="0" t="n">
         <v>229000000.0</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>275000000.0</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="F5" s="0" t="n">
         <v>262000000.0</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="G5" s="0" t="n">
         <v>330000000.0</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="H5" s="0" t="n">
         <v>81800000.0</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="I5" s="0" t="n">
         <v>80300000.0</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="J5" s="0" t="n">
         <v>50300000.0</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="K5" s="0" t="n">
         <v>77200000.0</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="L5" s="0" t="n">
         <v>61800000.0</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="M5" s="0" t="n">
         <v>49300000.0</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="N5" s="0" t="n">
         <v>34000000.0</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="O5" s="0" t="n">
         <v>74900000.0</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="P5" s="0" t="n">
         <v>43000000.0</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="Q5" s="0" t="n">
         <v>47300000.0</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="R5" s="0" t="n">
         <v>39300000.0</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="S5" s="0" t="n">
         <v>97500000.0</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="T5" s="0" t="n">
         <v>49500000.0</v>
       </c>
-      <c r="T5" s="0" t="n">
+      <c r="U5" s="0" t="n">
         <v>89100000.0</v>
       </c>
-      <c r="U5" s="0" t="n">
+      <c r="V5" s="0" t="n">
         <v>59500000.0</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="W5" s="0" t="n">
         <v>155600000.0</v>
       </c>
-      <c r="W5" s="0" t="n">
+      <c r="X5" s="0" t="n">
         <v>344400000.0</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="Y5" s="0" t="n">
         <v>289100000.0</v>
       </c>
-      <c r="Y5" s="0" t="n">
+      <c r="Z5" s="0" t="n">
         <v>221600000.0</v>
       </c>
-      <c r="Z5" s="0" t="n">
+      <c r="AA5" s="0" t="n">
         <v>38600000.0</v>
       </c>
-      <c r="AA5" s="0" t="n">
+      <c r="AB5" s="0" t="n">
         <v>159100000.0</v>
       </c>
-      <c r="AB5" s="0" t="n">
+      <c r="AC5" s="0" t="n">
         <v>174800000.0</v>
       </c>
-      <c r="AC5" s="0" t="n">
+      <c r="AD5" s="0" t="n">
         <v>289200000.0</v>
       </c>
-      <c r="AD5" s="0" t="n">
+      <c r="AE5" s="0" t="n">
         <v>334000000.0</v>
       </c>
-      <c r="AE5" s="0" t="n">
+      <c r="AF5" s="0" t="n">
         <v>161000000.0</v>
       </c>
-      <c r="AF5" s="0" t="n">
+      <c r="AG5" s="0" t="n">
         <v>174400000.0</v>
       </c>
-      <c r="AG5" s="0" t="n">
+      <c r="AH5" s="0" t="n">
         <v>246300000.0</v>
       </c>
-      <c r="AH5" s="0" t="n">
+      <c r="AI5" s="0" t="n">
         <v>340200000.0</v>
       </c>
-      <c r="AI5" s="0" t="n">
+      <c r="AJ5" s="0" t="n">
         <v>178500000.0</v>
       </c>
-      <c r="AJ5" s="0" t="n">
+      <c r="AK5" s="0" t="n">
         <v>201500000.0</v>
       </c>
-      <c r="AK5" s="0" t="n">
+      <c r="AL5" s="0" t="n">
         <v>190300000.0</v>
       </c>
-      <c r="AL5" s="0" t="n">
+      <c r="AM5" s="0" t="n">
         <v>339800000.0</v>
       </c>
-      <c r="AM5" s="0" t="n">
+      <c r="AN5" s="0" t="n">
         <v>162200000.0</v>
       </c>
-      <c r="AN5" s="0" t="n">
+      <c r="AO5" s="0" t="n">
         <v>225400000.0</v>
       </c>
     </row>
@@ -742,120 +758,123 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
+        <v>2355500000.0</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>2083000000.0</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="D6" s="0" t="n">
         <v>1727000000.0</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>1713000000.0</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>1845000000.0</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>2094000000.0</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>1773000000.0</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>1838700000.0</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>2008300000.0</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="K6" s="0" t="n">
         <v>2247600000.0</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="L6" s="0" t="n">
         <v>1839700000.0</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="M6" s="0" t="n">
         <v>1810400000.0</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="N6" s="0" t="n">
         <v>1980800000.0</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="O6" s="0" t="n">
         <v>2213500000.0</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="P6" s="0" t="n">
         <v>1823300000.0</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="Q6" s="0" t="n">
         <v>1779700000.0</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="R6" s="0" t="n">
         <v>1855300000.0</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="S6" s="0" t="n">
         <v>2168700000.0</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="T6" s="0" t="n">
         <v>1817700000.0</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="U6" s="0" t="n">
         <v>1765900000.0</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="V6" s="0" t="n">
         <v>1896400000.0</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="W6" s="0" t="n">
         <v>2206800000.0</v>
       </c>
-      <c r="W6" s="0" t="n">
+      <c r="X6" s="0" t="n">
         <v>2181900000.0</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="Y6" s="0" t="n">
         <v>2276800000.0</v>
       </c>
-      <c r="Y6" s="0" t="n">
+      <c r="Z6" s="0" t="n">
         <v>1326400000.0</v>
       </c>
-      <c r="Z6" s="0" t="n">
+      <c r="AA6" s="0" t="n">
         <v>1292700000.0</v>
       </c>
-      <c r="AA6" s="0" t="n">
+      <c r="AB6" s="0" t="n">
         <v>1274500000.0</v>
       </c>
-      <c r="AB6" s="0" t="n">
+      <c r="AC6" s="0" t="n">
         <v>1285500000.0</v>
       </c>
-      <c r="AC6" s="0" t="n">
+      <c r="AD6" s="0" t="n">
         <v>1545000000.0</v>
       </c>
-      <c r="AD6" s="0" t="n">
+      <c r="AE6" s="0" t="n">
         <v>1551100000.0</v>
       </c>
-      <c r="AE6" s="0" t="n">
+      <c r="AF6" s="0" t="n">
         <v>1238200000.0</v>
       </c>
-      <c r="AF6" s="0" t="n">
+      <c r="AG6" s="0" t="n">
         <v>1271100000.0</v>
       </c>
-      <c r="AG6" s="0" t="n">
+      <c r="AH6" s="0" t="n">
         <v>1313800000.0</v>
       </c>
-      <c r="AH6" s="0" t="n">
+      <c r="AI6" s="0" t="n">
         <v>1272600000.0</v>
       </c>
-      <c r="AI6" s="0" t="n">
+      <c r="AJ6" s="0" t="n">
         <v>1084800000.0</v>
       </c>
-      <c r="AJ6" s="0" t="n">
+      <c r="AK6" s="0" t="n">
         <v>1236900000.0</v>
       </c>
-      <c r="AK6" s="0" t="n">
+      <c r="AL6" s="0" t="n">
         <v>1279800000.0</v>
       </c>
-      <c r="AL6" s="0" t="n">
+      <c r="AM6" s="0" t="n">
         <v>1426200000.0</v>
       </c>
-      <c r="AM6" s="0" t="n">
+      <c r="AN6" s="0" t="n">
         <v>1132400000.0</v>
       </c>
-      <c r="AN6" s="0" t="n">
+      <c r="AO6" s="0" t="n">
         <v>1171900000.0</v>
       </c>
     </row>
@@ -866,120 +885,123 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
+        <v>25994400000.0</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>25736000000.0</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="D7" s="0" t="n">
         <v>24552000000.0</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="E7" s="0" t="n">
         <v>24172000000.0</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="F7" s="0" t="n">
         <v>23797000000.0</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="G7" s="0" t="n">
         <v>23675000000.0</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="H7" s="0" t="n">
         <v>23035100000.0</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="I7" s="0" t="n">
         <v>22535800000.0</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="J7" s="0" t="n">
         <v>22193300000.0</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="K7" s="0" t="n">
         <v>22000900000.0</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="L7" s="0" t="n">
         <v>21663700000.0</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="M7" s="0" t="n">
         <v>21078400000.0</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="N7" s="0" t="n">
         <v>21466300000.0</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="O7" s="0" t="n">
         <v>21347000000.0</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="P7" s="0" t="n">
         <v>20882900000.0</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="Q7" s="0" t="n">
         <v>20524300000.0</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="R7" s="0" t="n">
         <v>19990200000.0</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="S7" s="0" t="n">
         <v>19915500000.0</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="T7" s="0" t="n">
         <v>19612200000.0</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="U7" s="0" t="n">
         <v>19398900000.0</v>
       </c>
-      <c r="U7" s="0" t="n">
+      <c r="V7" s="0" t="n">
         <v>19259000000.0</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="W7" s="0" t="n">
         <v>19189700000.0</v>
       </c>
-      <c r="W7" s="0" t="n">
+      <c r="X7" s="0" t="n">
         <v>18785200000.0</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="Y7" s="0" t="n">
         <v>18529400000.0</v>
       </c>
-      <c r="Y7" s="0" t="n">
+      <c r="Z7" s="0" t="n">
         <v>11316000000.0</v>
       </c>
-      <c r="Z7" s="0" t="n">
+      <c r="AA7" s="0" t="n">
         <v>11257700000.0</v>
       </c>
-      <c r="AA7" s="0" t="n">
+      <c r="AB7" s="0" t="n">
         <v>11134900000.0</v>
       </c>
-      <c r="AB7" s="0" t="n">
+      <c r="AC7" s="0" t="n">
         <v>11024000000.0</v>
       </c>
-      <c r="AC7" s="0" t="n">
+      <c r="AD7" s="0" t="n">
         <v>10941700000.0</v>
       </c>
-      <c r="AD7" s="0" t="n">
+      <c r="AE7" s="0" t="n">
         <v>10906600000.0</v>
       </c>
-      <c r="AE7" s="0" t="n">
+      <c r="AF7" s="0" t="n">
         <v>10805200000.0</v>
       </c>
-      <c r="AF7" s="0" t="n">
+      <c r="AG7" s="0" t="n">
         <v>10704500000.0</v>
       </c>
-      <c r="AG7" s="0" t="n">
+      <c r="AH7" s="0" t="n">
         <v>10616100000.0</v>
       </c>
-      <c r="AH7" s="0" t="n">
+      <c r="AI7" s="0" t="n">
         <v>10572200000.0</v>
       </c>
-      <c r="AI7" s="0" t="n">
+      <c r="AJ7" s="0" t="n">
         <v>10438800000.0</v>
       </c>
-      <c r="AJ7" s="0" t="n">
+      <c r="AK7" s="0" t="n">
         <v>10340700000.0</v>
       </c>
-      <c r="AK7" s="0" t="n">
+      <c r="AL7" s="0" t="n">
         <v>10235000000.0</v>
       </c>
-      <c r="AL7" s="0" t="n">
+      <c r="AM7" s="0" t="n">
         <v>10160400000.0</v>
       </c>
-      <c r="AM7" s="0" t="n">
+      <c r="AN7" s="0" t="n">
         <v>9999100000.0</v>
       </c>
-      <c r="AN7" s="0" t="n">
+      <c r="AO7" s="0" t="n">
         <v>9821300000.0</v>
       </c>
     </row>
@@ -990,120 +1012,123 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
+        <v>1773600000.0</v>
+      </c>
+      <c r="C8" s="0" t="n">
         <v>1813000000.0</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="D8" s="0" t="n">
         <v>1803000000.0</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="E8" s="0" t="n">
         <v>1796000000.0</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="F8" s="0" t="n">
         <v>1770000000.0</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="G8" s="0" t="n">
         <v>1766000000.0</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="H8" s="0" t="n">
         <v>1720400000.0</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="I8" s="0" t="n">
         <v>1696500000.0</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="J8" s="0" t="n">
         <v>1670600000.0</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="K8" s="0" t="n">
         <v>1665300000.0</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="L8" s="0" t="n">
         <v>1613700000.0</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="M8" s="0" t="n">
         <v>1596600000.0</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="N8" s="0" t="n">
         <v>1598900000.0</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="O8" s="0" t="n">
         <v>1553400000.0</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="P8" s="0" t="n">
         <v>1560800000.0</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="Q8" s="0" t="n">
         <v>1544000000.0</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="R8" s="0" t="n">
         <v>1513300000.0</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="S8" s="0" t="n">
         <v>1443900000.0</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="T8" s="0" t="n">
         <v>1544500000.0</v>
       </c>
-      <c r="T8" s="0" t="n">
+      <c r="U8" s="0" t="n">
         <v>1513000000.0</v>
       </c>
-      <c r="U8" s="0" t="n">
+      <c r="V8" s="0" t="n">
         <v>1510000000.0</v>
       </c>
-      <c r="V8" s="0" t="n">
+      <c r="W8" s="0" t="n">
         <v>1380900000.0</v>
       </c>
-      <c r="W8" s="0" t="n">
+      <c r="X8" s="0" t="n">
         <v>1096400000.0</v>
       </c>
-      <c r="X8" s="0" t="n">
+      <c r="Y8" s="0" t="n">
         <v>1169700000.0</v>
       </c>
-      <c r="Y8" s="0" t="n">
+      <c r="Z8" s="0" t="n">
         <v>464100000.0</v>
       </c>
-      <c r="Z8" s="0" t="n">
+      <c r="AA8" s="0" t="n">
         <v>456900000.0</v>
       </c>
-      <c r="AA8" s="0" t="n">
+      <c r="AB8" s="0" t="n">
         <v>455900000.0</v>
       </c>
-      <c r="AB8" s="0" t="n">
+      <c r="AC8" s="0" t="n">
         <v>452100000.0</v>
       </c>
-      <c r="AC8" s="0" t="n">
+      <c r="AD8" s="0" t="n">
         <v>445400000.0</v>
       </c>
-      <c r="AD8" s="0" t="n">
+      <c r="AE8" s="0" t="n">
         <v>438800000.0</v>
       </c>
-      <c r="AE8" s="0" t="n">
+      <c r="AF8" s="0" t="n">
         <v>433200000.0</v>
       </c>
-      <c r="AF8" s="0" t="n">
+      <c r="AG8" s="0" t="n">
         <v>428800000.0</v>
       </c>
-      <c r="AG8" s="0" t="n">
+      <c r="AH8" s="0" t="n">
         <v>419800000.0</v>
       </c>
-      <c r="AH8" s="0" t="n">
+      <c r="AI8" s="0" t="n">
         <v>413800000.0</v>
       </c>
-      <c r="AI8" s="0" t="n">
+      <c r="AJ8" s="0" t="n">
         <v>408900000.0</v>
       </c>
-      <c r="AJ8" s="0" t="n">
+      <c r="AK8" s="0" t="n">
         <v>399700000.0</v>
       </c>
-      <c r="AK8" s="0" t="n">
+      <c r="AL8" s="0" t="n">
         <v>393400000.0</v>
       </c>
-      <c r="AL8" s="0" t="n">
+      <c r="AM8" s="0" t="n">
         <v>393300000.0</v>
       </c>
-      <c r="AM8" s="0" t="n">
+      <c r="AN8" s="0" t="n">
         <v>382800000.0</v>
       </c>
-      <c r="AN8" s="0" t="n">
+      <c r="AO8" s="0" t="n">
         <v>376700000.0</v>
       </c>
     </row>
@@ -1114,7 +1139,7 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>3053000000.0</v>
+        <v>3052800000.0</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>3053000000.0</v>
@@ -1129,7 +1154,7 @@
         <v>3053000000.0</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>3052800000.0</v>
+        <v>3053000000.0</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>3052800000.0</v>
@@ -1150,7 +1175,7 @@
         <v>3052800000.0</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>3053500000.0</v>
+        <v>3052800000.0</v>
       </c>
       <c r="O9" s="0" t="n">
         <v>3053500000.0</v>
@@ -1159,7 +1184,7 @@
         <v>3053500000.0</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>3046200000.0</v>
+        <v>3053500000.0</v>
       </c>
       <c r="R9" s="0" t="n">
         <v>3046200000.0</v>
@@ -1171,19 +1196,19 @@
         <v>3046200000.0</v>
       </c>
       <c r="U9" s="0" t="n">
+        <v>3046200000.0</v>
+      </c>
+      <c r="V9" s="0" t="n">
         <v>2999100000.0</v>
       </c>
-      <c r="V9" s="0" t="n">
+      <c r="W9" s="0" t="n">
         <v>3023500000.0</v>
       </c>
-      <c r="W9" s="0" t="n">
+      <c r="X9" s="0" t="n">
         <v>3389100000.0</v>
       </c>
-      <c r="X9" s="0" t="n">
+      <c r="Y9" s="0" t="n">
         <v>3386500000.0</v>
-      </c>
-      <c r="Y9" s="0" t="n">
-        <v>441900000.0</v>
       </c>
       <c r="Z9" s="0" t="n">
         <v>441900000.0</v>
@@ -1228,6 +1253,9 @@
         <v>441900000.0</v>
       </c>
       <c r="AN9" s="0" t="n">
+        <v>441900000.0</v>
+      </c>
+      <c r="AO9" s="0" t="n">
         <v>441900000.0</v>
       </c>
     </row>
@@ -1238,120 +1266,123 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
+        <v>937200000.0</v>
+      </c>
+      <c r="C10" s="0" t="n">
         <v>4343000000.0</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="D10" s="0" t="n">
         <v>4287000000.0</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="E10" s="0" t="n">
         <v>4308000000.0</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="F10" s="0" t="n">
         <v>4367000000.0</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="G10" s="0" t="n">
         <v>4364000000.0</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="H10" s="0" t="n">
         <v>796000000.0</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="I10" s="0" t="n">
         <v>803500000.0</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="J10" s="0" t="n">
         <v>802300000.0</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="K10" s="0" t="n">
         <v>704100000.0</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="L10" s="0" t="n">
         <v>749000000.0</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="M10" s="0" t="n">
         <v>753500000.0</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="N10" s="0" t="n">
         <v>757100000.0</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="O10" s="0" t="n">
         <v>619900000.0</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="P10" s="0" t="n">
         <v>584800000.0</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="Q10" s="0" t="n">
         <v>549700000.0</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="R10" s="0" t="n">
         <v>527500000.0</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="S10" s="0" t="n">
         <v>461000000.0</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="T10" s="0" t="n">
         <v>418300000.0</v>
       </c>
-      <c r="T10" s="0" t="n">
+      <c r="U10" s="0" t="n">
         <v>419900000.0</v>
       </c>
-      <c r="U10" s="0" t="n">
+      <c r="V10" s="0" t="n">
         <v>379300000.0</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="W10" s="0" t="n">
         <v>489700000.0</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="X10" s="0" t="n">
         <v>511500000.0</v>
       </c>
-      <c r="X10" s="0" t="n">
+      <c r="Y10" s="0" t="n">
         <v>455700000.0</v>
       </c>
-      <c r="Y10" s="0" t="n">
+      <c r="Z10" s="0" t="n">
         <v>317200000.0</v>
       </c>
-      <c r="Z10" s="0" t="n">
+      <c r="AA10" s="0" t="n">
         <v>184600000.0</v>
       </c>
-      <c r="AA10" s="0" t="n">
+      <c r="AB10" s="0" t="n">
         <v>321000000.0</v>
       </c>
-      <c r="AB10" s="0" t="n">
+      <c r="AC10" s="0" t="n">
         <v>321400000.0</v>
       </c>
-      <c r="AC10" s="0" t="n">
+      <c r="AD10" s="0" t="n">
         <v>328800000.0</v>
       </c>
-      <c r="AD10" s="0" t="n">
+      <c r="AE10" s="0" t="n">
         <v>322500000.0</v>
       </c>
-      <c r="AE10" s="0" t="n">
+      <c r="AF10" s="0" t="n">
         <v>186900000.0</v>
       </c>
-      <c r="AF10" s="0" t="n">
+      <c r="AG10" s="0" t="n">
         <v>185100000.0</v>
       </c>
-      <c r="AG10" s="0" t="n">
+      <c r="AH10" s="0" t="n">
         <v>179800000.0</v>
       </c>
-      <c r="AH10" s="0" t="n">
+      <c r="AI10" s="0" t="n">
         <v>204200000.0</v>
       </c>
-      <c r="AI10" s="0" t="n">
+      <c r="AJ10" s="0" t="n">
         <v>179900000.0</v>
       </c>
-      <c r="AJ10" s="0" t="n">
+      <c r="AK10" s="0" t="n">
         <v>180800000.0</v>
       </c>
-      <c r="AK10" s="0" t="n">
+      <c r="AL10" s="0" t="n">
         <v>184900000.0</v>
       </c>
-      <c r="AL10" s="0" t="n">
+      <c r="AM10" s="0" t="n">
         <v>201600000.0</v>
       </c>
-      <c r="AM10" s="0" t="n">
+      <c r="AN10" s="0" t="n">
         <v>210400000.0</v>
       </c>
-      <c r="AN10" s="0" t="n">
+      <c r="AO10" s="0" t="n">
         <v>209500000.0</v>
       </c>
     </row>
@@ -1362,120 +1393,123 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
+        <v>35245100000.0</v>
+      </c>
+      <c r="C11" s="0" t="n">
         <v>34945100000.0</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="D11" s="0" t="n">
         <v>33694800000.0</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="E11" s="0" t="n">
         <v>33328600000.0</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="F11" s="0" t="n">
         <v>32986900000.0</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="G11" s="0" t="n">
         <v>32858200000.0</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="H11" s="0" t="n">
         <v>32604200000.0</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="I11" s="0" t="n">
         <v>32095600000.0</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="J11" s="0" t="n">
         <v>31728800000.0</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="K11" s="0" t="n">
         <v>31228200000.0</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="L11" s="0" t="n">
         <v>30722700000.0</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="M11" s="0" t="n">
         <v>30127200000.0</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="N11" s="0" t="n">
         <v>29804800000.0</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="O11" s="0" t="n">
         <v>29377000000.0</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="P11" s="0" t="n">
         <v>29189700000.0</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="Q11" s="0" t="n">
         <v>28779900000.0</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="R11" s="0" t="n">
         <v>28161300000.0</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="S11" s="0" t="n">
         <v>27954500000.0</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="T11" s="0" t="n">
         <v>27625800000.0</v>
       </c>
-      <c r="T11" s="0" t="n">
+      <c r="U11" s="0" t="n">
         <v>27409400000.0</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="V11" s="0" t="n">
         <v>27208200000.0</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="W11" s="0" t="n">
         <v>27148400000.0</v>
       </c>
-      <c r="W11" s="0" t="n">
+      <c r="X11" s="0" t="n">
         <v>26587700000.0</v>
       </c>
-      <c r="X11" s="0" t="n">
+      <c r="Y11" s="0" t="n">
         <v>26337700000.0</v>
       </c>
-      <c r="Y11" s="0" t="n">
+      <c r="Z11" s="0" t="n">
         <v>13809200000.0</v>
       </c>
-      <c r="Z11" s="0" t="n">
+      <c r="AA11" s="0" t="n">
         <v>13612300000.0</v>
       </c>
-      <c r="AA11" s="0" t="n">
+      <c r="AB11" s="0" t="n">
         <v>13450400000.0</v>
       </c>
-      <c r="AB11" s="0" t="n">
+      <c r="AC11" s="0" t="n">
         <v>13334300000.0</v>
       </c>
-      <c r="AC11" s="0" t="n">
+      <c r="AD11" s="0" t="n">
         <v>13255800000.0</v>
       </c>
-      <c r="AD11" s="0" t="n">
+      <c r="AE11" s="0" t="n">
         <v>13218300000.0</v>
       </c>
-      <c r="AE11" s="0" t="n">
+      <c r="AF11" s="0" t="n">
         <v>13134600000.0</v>
       </c>
-      <c r="AF11" s="0" t="n">
+      <c r="AG11" s="0" t="n">
         <v>13045900000.0</v>
       </c>
-      <c r="AG11" s="0" t="n">
+      <c r="AH11" s="0" t="n">
         <v>12981500000.0</v>
       </c>
-      <c r="AH11" s="0" t="n">
+      <c r="AI11" s="0" t="n">
         <v>13012400000.0</v>
       </c>
-      <c r="AI11" s="0" t="n">
+      <c r="AJ11" s="0" t="n">
         <v>12749900000.0</v>
       </c>
-      <c r="AJ11" s="0" t="n">
+      <c r="AK11" s="0" t="n">
         <v>12650700000.0</v>
       </c>
-      <c r="AK11" s="0" t="n">
+      <c r="AL11" s="0" t="n">
         <v>12541500000.0</v>
       </c>
-      <c r="AL11" s="0" t="n">
+      <c r="AM11" s="0" t="n">
         <v>12435900000.0</v>
       </c>
-      <c r="AM11" s="0" t="n">
+      <c r="AN11" s="0" t="n">
         <v>12117100000.0</v>
       </c>
-      <c r="AN11" s="0" t="n">
+      <c r="AO11" s="0" t="n">
         <v>11904400000.0</v>
       </c>
     </row>
@@ -1486,120 +1520,123 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
+        <v>37600600000.0</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>37927000000.0</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="D12" s="0" t="n">
         <v>35422000000.0</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="E12" s="0" t="n">
         <v>35042000000.0</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="F12" s="0" t="n">
         <v>34832000000.0</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="G12" s="0" t="n">
         <v>35836000000.0</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="H12" s="0" t="n">
         <v>34377200000.0</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="I12" s="0" t="n">
         <v>33934300000.0</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="J12" s="0" t="n">
         <v>33737100000.0</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="K12" s="0" t="n">
         <v>33475800000.0</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="L12" s="0" t="n">
         <v>32562400000.0</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="M12" s="0" t="n">
         <v>31937600000.0</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="N12" s="0" t="n">
         <v>31785600000.0</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="O12" s="0" t="n">
         <v>31590500000.0</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="P12" s="0" t="n">
         <v>31013000000.0</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="Q12" s="0" t="n">
         <v>30559600000.0</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="R12" s="0" t="n">
         <v>30016600000.0</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="S12" s="0" t="n">
         <v>30123200000.0</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="T12" s="0" t="n">
         <v>29443500000.0</v>
       </c>
-      <c r="T12" s="0" t="n">
+      <c r="U12" s="0" t="n">
         <v>29175300000.0</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="V12" s="0" t="n">
         <v>29104600000.0</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="W12" s="0" t="n">
         <v>29355200000.0</v>
       </c>
-      <c r="W12" s="0" t="n">
+      <c r="X12" s="0" t="n">
         <v>28769600000.0</v>
       </c>
-      <c r="X12" s="0" t="n">
+      <c r="Y12" s="0" t="n">
         <v>28614500000.0</v>
       </c>
-      <c r="Y12" s="0" t="n">
+      <c r="Z12" s="0" t="n">
         <v>15135600000.0</v>
       </c>
-      <c r="Z12" s="0" t="n">
+      <c r="AA12" s="0" t="n">
         <v>14905000000.0</v>
       </c>
-      <c r="AA12" s="0" t="n">
+      <c r="AB12" s="0" t="n">
         <v>14724900000.0</v>
       </c>
-      <c r="AB12" s="0" t="n">
+      <c r="AC12" s="0" t="n">
         <v>14619800000.0</v>
       </c>
-      <c r="AC12" s="0" t="n">
+      <c r="AD12" s="0" t="n">
         <v>14800800000.0</v>
       </c>
-      <c r="AD12" s="0" t="n">
+      <c r="AE12" s="0" t="n">
         <v>14769400000.0</v>
       </c>
-      <c r="AE12" s="0" t="n">
+      <c r="AF12" s="0" t="n">
         <v>14372800000.0</v>
       </c>
-      <c r="AF12" s="0" t="n">
+      <c r="AG12" s="0" t="n">
         <v>14317000000.0</v>
       </c>
-      <c r="AG12" s="0" t="n">
+      <c r="AH12" s="0" t="n">
         <v>14295300000.0</v>
       </c>
-      <c r="AH12" s="0" t="n">
+      <c r="AI12" s="0" t="n">
         <v>14285000000.0</v>
       </c>
-      <c r="AI12" s="0" t="n">
+      <c r="AJ12" s="0" t="n">
         <v>13834700000.0</v>
       </c>
-      <c r="AJ12" s="0" t="n">
+      <c r="AK12" s="0" t="n">
         <v>13887600000.0</v>
       </c>
-      <c r="AK12" s="0" t="n">
+      <c r="AL12" s="0" t="n">
         <v>13821300000.0</v>
       </c>
-      <c r="AL12" s="0" t="n">
+      <c r="AM12" s="0" t="n">
         <v>13862100000.0</v>
       </c>
-      <c r="AM12" s="0" t="n">
+      <c r="AN12" s="0" t="n">
         <v>13249500000.0</v>
       </c>
-      <c r="AN12" s="0" t="n">
+      <c r="AO12" s="0" t="n">
         <v>13076300000.0</v>
       </c>
     </row>
@@ -1610,120 +1647,123 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>117600000.0</v>
+        <v>656000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>9400000.0</v>
+        <v>881000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>61800000.0</v>
+        <v>751000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-250100000.0</v>
+        <v>697000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>193800000.0</v>
+        <v>598000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
+        <v>908000000.0</v>
+      </c>
+      <c r="H13" s="0" t="n">
         <v>769000000.0</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="I13" s="0" t="n">
         <v>715600000.0</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="J13" s="0" t="n">
         <v>674100000.0</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="K13" s="0" t="n">
         <v>876400000.0</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="L13" s="0" t="n">
         <v>690400000.0</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="M13" s="0" t="n">
         <v>681000000.0</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="N13" s="0" t="n">
         <v>592800000.0</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="O13" s="0" t="n">
         <v>859900000.0</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="P13" s="0" t="n">
         <v>743900000.0</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="Q13" s="0" t="n">
         <v>724100000.0</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="R13" s="0" t="n">
         <v>582300000.0</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="S13" s="0" t="n">
         <v>861500000.0</v>
       </c>
-      <c r="S13" s="0" t="n">
+      <c r="T13" s="0" t="n">
         <v>663500000.0</v>
       </c>
-      <c r="T13" s="0" t="n">
+      <c r="U13" s="0" t="n">
         <v>620500000.0</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="V13" s="0" t="n">
         <v>584400000.0</v>
       </c>
-      <c r="V13" s="0" t="n">
+      <c r="W13" s="0" t="n">
         <v>815400000.0</v>
       </c>
-      <c r="W13" s="0" t="n">
+      <c r="X13" s="0" t="n">
         <v>777600000.0</v>
       </c>
-      <c r="X13" s="0" t="n">
+      <c r="Y13" s="0" t="n">
         <v>777100000.0</v>
       </c>
-      <c r="Y13" s="0" t="n">
+      <c r="Z13" s="0" t="n">
         <v>291900000.0</v>
       </c>
-      <c r="Z13" s="0" t="n">
+      <c r="AA13" s="0" t="n">
         <v>363300000.0</v>
       </c>
-      <c r="AA13" s="0" t="n">
+      <c r="AB13" s="0" t="n">
         <v>315000000.0</v>
       </c>
-      <c r="AB13" s="0" t="n">
+      <c r="AC13" s="0" t="n">
         <v>288500000.0</v>
       </c>
-      <c r="AC13" s="0" t="n">
+      <c r="AD13" s="0" t="n">
         <v>435000000.0</v>
       </c>
-      <c r="AD13" s="0" t="n">
+      <c r="AE13" s="0" t="n">
         <v>342600000.0</v>
       </c>
-      <c r="AE13" s="0" t="n">
+      <c r="AF13" s="0" t="n">
         <v>296900000.0</v>
       </c>
-      <c r="AF13" s="0" t="n">
+      <c r="AG13" s="0" t="n">
         <v>276400000.0</v>
       </c>
-      <c r="AG13" s="0" t="n">
+      <c r="AH13" s="0" t="n">
         <v>257100000.0</v>
       </c>
-      <c r="AH13" s="0" t="n">
+      <c r="AI13" s="0" t="n">
         <v>368400000.0</v>
       </c>
-      <c r="AI13" s="0" t="n">
+      <c r="AJ13" s="0" t="n">
         <v>277700000.0</v>
       </c>
-      <c r="AJ13" s="0" t="n">
+      <c r="AK13" s="0" t="n">
         <v>267500000.0</v>
       </c>
-      <c r="AK13" s="0" t="n">
+      <c r="AL13" s="0" t="n">
         <v>239300000.0</v>
       </c>
-      <c r="AL13" s="0" t="n">
+      <c r="AM13" s="0" t="n">
         <v>325700000.0</v>
       </c>
-      <c r="AM13" s="0" t="n">
+      <c r="AN13" s="0" t="n">
         <v>274600000.0</v>
       </c>
-      <c r="AN13" s="0" t="n">
+      <c r="AO13" s="0" t="n">
         <v>309800000.0</v>
       </c>
     </row>
@@ -1734,122 +1774,125 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
+        <v>123000000.0</v>
+      </c>
+      <c r="C14" s="0" t="n">
         <v>174000000.0</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="D14" s="0" t="n">
         <v>173900000.0</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="E14" s="0" t="n">
         <v>161600000.0</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="F14" s="0" t="n">
         <v>128600000.0</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="G14" s="0" t="n">
         <v>199800000.0</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="H14" s="0" t="n">
         <v>167000000.0</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="I14" s="0" t="n">
         <v>159300000.0</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="J14" s="0" t="n">
         <v>125900000.0</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="K14" s="0" t="n">
         <v>185400000.0</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="L14" s="0" t="n">
         <v>143100000.0</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="M14" s="0" t="n">
         <v>130700000.0</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="N14" s="0" t="n">
         <v>107400000.0</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="O14" s="0" t="n">
         <v>169100000.0</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="P14" s="0" t="n">
         <v>136800000.0</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="Q14" s="0" t="n">
         <v>140000000.0</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="R14" s="0" t="n">
         <v>222600000.0</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="S14" s="0" t="n">
         <v>163800000.0</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="T14" s="0" t="n">
         <v>243000000.0</v>
       </c>
-      <c r="T14" s="0" t="n">
+      <c r="U14" s="0" t="n">
         <v>134500000.0</v>
       </c>
-      <c r="U14" s="0" t="n">
+      <c r="V14" s="0" t="n">
         <v>221300000.0</v>
       </c>
-      <c r="V14" s="0" t="n">
+      <c r="W14" s="0" t="n">
         <v>169700000.0</v>
       </c>
-      <c r="W14" s="0" t="n">
+      <c r="X14" s="0" t="n">
         <v>154900000.0</v>
       </c>
-      <c r="X14" s="0" t="n">
+      <c r="Y14" s="0" t="n">
         <v>135700000.0</v>
       </c>
-      <c r="Y14" s="0" t="n">
+      <c r="Z14" s="0" t="n">
         <v>58800000.0</v>
       </c>
-      <c r="Z14" s="0" t="n">
+      <c r="AA14" s="0" t="n">
         <v>95100000.0</v>
       </c>
-      <c r="AA14" s="0" t="n">
+      <c r="AB14" s="0" t="n">
         <v>71400000.0</v>
       </c>
-      <c r="AB14" s="0" t="n">
+      <c r="AC14" s="0" t="n">
         <v>70400000.0</v>
       </c>
-      <c r="AC14" s="0" t="n">
+      <c r="AD14" s="0" t="n">
         <v>73300000.0</v>
       </c>
-      <c r="AD14" s="0" t="n">
+      <c r="AE14" s="0" t="n">
         <v>96900000.0</v>
       </c>
-      <c r="AE14" s="0" t="n">
+      <c r="AF14" s="0" t="n">
         <v>90800000.0</v>
       </c>
-      <c r="AF14" s="0" t="n">
+      <c r="AG14" s="0" t="n">
         <v>75500000.0</v>
       </c>
-      <c r="AG14" s="0" t="n">
+      <c r="AH14" s="0" t="n">
         <v>71700000.0</v>
       </c>
-      <c r="AH14" s="0" t="n">
+      <c r="AI14" s="0" t="n">
         <v>100900000.0</v>
       </c>
-      <c r="AI14" s="0" t="n">
+      <c r="AJ14" s="0" t="n">
         <v>101500000.0</v>
       </c>
-      <c r="AJ14" s="0" t="n">
+      <c r="AK14" s="0" t="n">
         <v>89200000.0</v>
       </c>
-      <c r="AK14" s="0" t="n">
+      <c r="AL14" s="0" t="n">
         <v>78900000.0</v>
       </c>
-      <c r="AL14" s="0" t="n">
+      <c r="AM14" s="0" t="n">
         <v>105900000.0</v>
       </c>
-      <c r="AM14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AN14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO14" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1862,120 +1905,123 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
+        <v>2367400000.0</v>
+      </c>
+      <c r="C15" s="0" t="n">
         <v>2567000000.0</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="D15" s="0" t="n">
         <v>1367000000.0</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="E15" s="0" t="n">
         <v>2107000000.0</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="F15" s="0" t="n">
         <v>1522000000.0</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="G15" s="0" t="n">
         <v>1531000000.0</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="H15" s="0" t="n">
         <v>1379000000.0</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="I15" s="0" t="n">
         <v>2029200000.0</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="J15" s="0" t="n">
         <v>1511200000.0</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="K15" s="0" t="n">
         <v>1805100000.0</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="L15" s="0" t="n">
         <v>2157700000.0</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="M15" s="0" t="n">
         <v>1663500000.0</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="N15" s="0" t="n">
         <v>2158200000.0</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="O15" s="0" t="n">
         <v>2286700000.0</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="P15" s="0" t="n">
         <v>1702800000.0</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="Q15" s="0" t="n">
         <v>1483200000.0</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="R15" s="0" t="n">
         <v>828400000.0</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="S15" s="0" t="n">
         <v>1017400000.0</v>
       </c>
-      <c r="S15" s="0" t="n">
+      <c r="T15" s="0" t="n">
         <v>878800000.0</v>
       </c>
-      <c r="T15" s="0" t="n">
+      <c r="U15" s="0" t="n">
         <v>1023600000.0</v>
       </c>
-      <c r="U15" s="0" t="n">
+      <c r="V15" s="0" t="n">
         <v>1048800000.0</v>
       </c>
-      <c r="V15" s="0" t="n">
+      <c r="W15" s="0" t="n">
         <v>1252700000.0</v>
       </c>
-      <c r="W15" s="0" t="n">
+      <c r="X15" s="0" t="n">
         <v>1267500000.0</v>
       </c>
-      <c r="X15" s="0" t="n">
+      <c r="Y15" s="0" t="n">
         <v>1434700000.0</v>
       </c>
-      <c r="Y15" s="0" t="n">
+      <c r="Z15" s="0" t="n">
         <v>989800000.0</v>
       </c>
-      <c r="Z15" s="0" t="n">
+      <c r="AA15" s="0" t="n">
         <v>1041700000.0</v>
       </c>
-      <c r="AA15" s="0" t="n">
+      <c r="AB15" s="0" t="n">
         <v>523500000.0</v>
       </c>
-      <c r="AB15" s="0" t="n">
+      <c r="AC15" s="0" t="n">
         <v>455200000.0</v>
       </c>
-      <c r="AC15" s="0" t="n">
+      <c r="AD15" s="0" t="n">
         <v>766000000.0</v>
       </c>
-      <c r="AD15" s="0" t="n">
+      <c r="AE15" s="0" t="n">
         <v>879600000.0</v>
       </c>
-      <c r="AE15" s="0" t="n">
+      <c r="AF15" s="0" t="n">
         <v>732800000.0</v>
       </c>
-      <c r="AF15" s="0" t="n">
+      <c r="AG15" s="0" t="n">
         <v>750500000.0</v>
       </c>
-      <c r="AG15" s="0" t="n">
+      <c r="AH15" s="0" t="n">
         <v>730200000.0</v>
       </c>
-      <c r="AH15" s="0" t="n">
+      <c r="AI15" s="0" t="n">
         <v>806700000.0</v>
       </c>
-      <c r="AI15" s="0" t="n">
+      <c r="AJ15" s="0" t="n">
         <v>834300000.0</v>
       </c>
-      <c r="AJ15" s="0" t="n">
+      <c r="AK15" s="0" t="n">
         <v>894300000.0</v>
       </c>
-      <c r="AK15" s="0" t="n">
+      <c r="AL15" s="0" t="n">
         <v>591100000.0</v>
       </c>
-      <c r="AL15" s="0" t="n">
+      <c r="AM15" s="0" t="n">
         <v>702500000.0</v>
       </c>
-      <c r="AM15" s="0" t="n">
+      <c r="AN15" s="0" t="n">
         <v>528500000.0</v>
       </c>
-      <c r="AN15" s="0" t="n">
+      <c r="AO15" s="0" t="n">
         <v>573000000.0</v>
       </c>
     </row>
@@ -2030,17 +2076,17 @@
           <t/>
         </is>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L16" s="0" t="n">
         <v>217400000.0</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="M16" s="0" t="n">
         <v>213500000.0</v>
       </c>
-      <c r="M16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="N16" s="0" t="inlineStr">
         <is>
           <t/>
@@ -2172,6 +2218,11 @@
         </is>
       </c>
       <c r="AN16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO16" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2184,120 +2235,123 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
+        <v>568500000.0</v>
+      </c>
+      <c r="C17" s="0" t="n">
         <v>701000000.0</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="D17" s="0" t="n">
         <v>722000000.0</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="E17" s="0" t="n">
         <v>682000000.0</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="F17" s="0" t="n">
         <v>728000000.0</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="G17" s="0" t="n">
         <v>744000000.0</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="H17" s="0" t="n">
         <v>503400000.0</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="I17" s="0" t="n">
         <v>457900000.0</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="J17" s="0" t="n">
         <v>578700000.0</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="K17" s="0" t="n">
         <v>464800000.0</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="L17" s="0" t="n">
         <v>393900000.0</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="M17" s="0" t="n">
         <v>364500000.0</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="N17" s="0" t="n">
         <v>747500000.0</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="O17" s="0" t="n">
         <v>553600000.0</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="P17" s="0" t="n">
         <v>442600000.0</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="Q17" s="0" t="n">
         <v>440000000.0</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="R17" s="0" t="n">
         <v>421300000.0</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="S17" s="0" t="n">
         <v>388900000.0</v>
       </c>
-      <c r="S17" s="0" t="n">
+      <c r="T17" s="0" t="n">
         <v>240200000.0</v>
       </c>
-      <c r="T17" s="0" t="n">
+      <c r="U17" s="0" t="n">
         <v>358500000.0</v>
       </c>
-      <c r="U17" s="0" t="n">
+      <c r="V17" s="0" t="n">
         <v>375300000.0</v>
       </c>
-      <c r="V17" s="0" t="n">
+      <c r="W17" s="0" t="n">
         <v>471200000.0</v>
       </c>
-      <c r="W17" s="0" t="n">
+      <c r="X17" s="0" t="n">
         <v>466800000.0</v>
       </c>
-      <c r="X17" s="0" t="n">
+      <c r="Y17" s="0" t="n">
         <v>592800000.0</v>
       </c>
-      <c r="Y17" s="0" t="n">
+      <c r="Z17" s="0" t="n">
         <v>219800000.0</v>
       </c>
-      <c r="Z17" s="0" t="n">
+      <c r="AA17" s="0" t="n">
         <v>168600000.0</v>
       </c>
-      <c r="AA17" s="0" t="n">
+      <c r="AB17" s="0" t="n">
         <v>155700000.0</v>
       </c>
-      <c r="AB17" s="0" t="n">
+      <c r="AC17" s="0" t="n">
         <v>166700000.0</v>
       </c>
-      <c r="AC17" s="0" t="n">
+      <c r="AD17" s="0" t="n">
         <v>150300000.0</v>
       </c>
-      <c r="AD17" s="0" t="n">
+      <c r="AE17" s="0" t="n">
         <v>177300000.0</v>
       </c>
-      <c r="AE17" s="0" t="n">
+      <c r="AF17" s="0" t="n">
         <v>170700000.0</v>
       </c>
-      <c r="AF17" s="0" t="n">
+      <c r="AG17" s="0" t="n">
         <v>178300000.0</v>
       </c>
-      <c r="AG17" s="0" t="n">
+      <c r="AH17" s="0" t="n">
         <v>219100000.0</v>
       </c>
-      <c r="AH17" s="0" t="n">
+      <c r="AI17" s="0" t="n">
         <v>165400000.0</v>
       </c>
-      <c r="AI17" s="0" t="n">
+      <c r="AJ17" s="0" t="n">
         <v>173500000.0</v>
       </c>
-      <c r="AJ17" s="0" t="n">
+      <c r="AK17" s="0" t="n">
         <v>177400000.0</v>
       </c>
-      <c r="AK17" s="0" t="n">
+      <c r="AL17" s="0" t="n">
         <v>262600000.0</v>
       </c>
-      <c r="AL17" s="0" t="n">
+      <c r="AM17" s="0" t="n">
         <v>230400000.0</v>
       </c>
-      <c r="AM17" s="0" t="n">
+      <c r="AN17" s="0" t="n">
         <v>286300000.0</v>
       </c>
-      <c r="AN17" s="0" t="n">
+      <c r="AO17" s="0" t="n">
         <v>260900000.0</v>
       </c>
     </row>
@@ -2308,120 +2362,123 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
+        <v>3714900000.0</v>
+      </c>
+      <c r="C18" s="0" t="n">
         <v>4148000000.0</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="D18" s="0" t="n">
         <v>2840000000.0</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="E18" s="0" t="n">
         <v>3485000000.0</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="F18" s="0" t="n">
         <v>2848000000.0</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="G18" s="0" t="n">
         <v>3183000000.0</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="H18" s="0" t="n">
         <v>2818400000.0</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="I18" s="0" t="n">
         <v>3362000000.0</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="J18" s="0" t="n">
         <v>2889900000.0</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="K18" s="0" t="n">
         <v>3331700000.0</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="L18" s="0" t="n">
         <v>3602500000.0</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="M18" s="0" t="n">
         <v>3053200000.0</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="N18" s="0" t="n">
         <v>3605900000.0</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="O18" s="0" t="n">
         <v>3869300000.0</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="P18" s="0" t="n">
         <v>3026100000.0</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="Q18" s="0" t="n">
         <v>2787300000.0</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="R18" s="0" t="n">
         <v>2054600000.0</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="S18" s="0" t="n">
         <v>2431600000.0</v>
       </c>
-      <c r="S18" s="0" t="n">
+      <c r="T18" s="0" t="n">
         <v>2025500000.0</v>
       </c>
-      <c r="T18" s="0" t="n">
+      <c r="U18" s="0" t="n">
         <v>2137100000.0</v>
       </c>
-      <c r="U18" s="0" t="n">
+      <c r="V18" s="0" t="n">
         <v>2229800000.0</v>
       </c>
-      <c r="V18" s="0" t="n">
+      <c r="W18" s="0" t="n">
         <v>2709000000.0</v>
       </c>
-      <c r="W18" s="0" t="n">
+      <c r="X18" s="0" t="n">
         <v>2666800000.0</v>
       </c>
-      <c r="X18" s="0" t="n">
+      <c r="Y18" s="0" t="n">
         <v>2940300000.0</v>
       </c>
-      <c r="Y18" s="0" t="n">
+      <c r="Z18" s="0" t="n">
         <v>1560300000.0</v>
       </c>
-      <c r="Z18" s="0" t="n">
+      <c r="AA18" s="0" t="n">
         <v>1668700000.0</v>
       </c>
-      <c r="AA18" s="0" t="n">
+      <c r="AB18" s="0" t="n">
         <v>1065600000.0</v>
       </c>
-      <c r="AB18" s="0" t="n">
+      <c r="AC18" s="0" t="n">
         <v>980800000.0</v>
       </c>
-      <c r="AC18" s="0" t="n">
+      <c r="AD18" s="0" t="n">
         <v>1424600000.0</v>
       </c>
-      <c r="AD18" s="0" t="n">
+      <c r="AE18" s="0" t="n">
         <v>1496400000.0</v>
       </c>
-      <c r="AE18" s="0" t="n">
+      <c r="AF18" s="0" t="n">
         <v>1291200000.0</v>
       </c>
-      <c r="AF18" s="0" t="n">
+      <c r="AG18" s="0" t="n">
         <v>1280700000.0</v>
       </c>
-      <c r="AG18" s="0" t="n">
+      <c r="AH18" s="0" t="n">
         <v>1278100000.0</v>
       </c>
-      <c r="AH18" s="0" t="n">
+      <c r="AI18" s="0" t="n">
         <v>1441400000.0</v>
       </c>
-      <c r="AI18" s="0" t="n">
+      <c r="AJ18" s="0" t="n">
         <v>1387000000.0</v>
       </c>
-      <c r="AJ18" s="0" t="n">
+      <c r="AK18" s="0" t="n">
         <v>1428400000.0</v>
       </c>
-      <c r="AK18" s="0" t="n">
+      <c r="AL18" s="0" t="n">
         <v>1171900000.0</v>
       </c>
-      <c r="AL18" s="0" t="n">
+      <c r="AM18" s="0" t="n">
         <v>1364500000.0</v>
       </c>
-      <c r="AM18" s="0" t="n">
+      <c r="AN18" s="0" t="n">
         <v>1089400000.0</v>
       </c>
-      <c r="AN18" s="0" t="n">
+      <c r="AO18" s="0" t="n">
         <v>1143700000.0</v>
       </c>
     </row>
@@ -2432,120 +2489,123 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
+        <v>12317700000.0</v>
+      </c>
+      <c r="C19" s="0" t="n">
         <v>11774000000.0</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="D19" s="0" t="n">
         <v>11653000000.0</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="E19" s="0" t="n">
         <v>10722000000.0</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="F19" s="0" t="n">
         <v>11195000000.0</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="G19" s="0" t="n">
         <v>11267000000.0</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="H19" s="0" t="n">
         <v>10897300000.0</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="I19" s="0" t="n">
         <v>9921000000.0</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="J19" s="0" t="n">
         <v>10326700000.0</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="K19" s="0" t="n">
         <v>9994000000.0</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="L19" s="0" t="n">
         <v>9119000000.0</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="M19" s="0" t="n">
         <v>9209300000.0</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="N19" s="0" t="n">
         <v>8617500000.0</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="O19" s="0" t="n">
         <v>8746600000.0</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="P19" s="0" t="n">
         <v>8785800000.0</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="Q19" s="0" t="n">
         <v>8799700000.0</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="R19" s="0" t="n">
         <v>9143600000.0</v>
       </c>
-      <c r="R19" s="0" t="n">
+      <c r="S19" s="0" t="n">
         <v>9158200000.0</v>
       </c>
-      <c r="S19" s="0" t="n">
+      <c r="T19" s="0" t="n">
         <v>9088100000.0</v>
       </c>
-      <c r="T19" s="0" t="n">
+      <c r="U19" s="0" t="n">
         <v>8902100000.0</v>
       </c>
-      <c r="U19" s="0" t="n">
+      <c r="V19" s="0" t="n">
         <v>8955800000.0</v>
       </c>
-      <c r="V19" s="0" t="n">
+      <c r="W19" s="0" t="n">
         <v>9124100000.0</v>
       </c>
-      <c r="W19" s="0" t="n">
+      <c r="X19" s="0" t="n">
         <v>8727000000.0</v>
       </c>
-      <c r="X19" s="0" t="n">
+      <c r="Y19" s="0" t="n">
         <v>8547600000.0</v>
       </c>
-      <c r="Y19" s="0" t="n">
+      <c r="Z19" s="0" t="n">
         <v>4169200000.0</v>
       </c>
-      <c r="Z19" s="0" t="n">
+      <c r="AA19" s="0" t="n">
         <v>4170700000.0</v>
       </c>
-      <c r="AA19" s="0" t="n">
+      <c r="AB19" s="0" t="n">
         <v>4569600000.0</v>
       </c>
-      <c r="AB19" s="0" t="n">
+      <c r="AC19" s="0" t="n">
         <v>4587500000.0</v>
       </c>
-      <c r="AC19" s="0" t="n">
+      <c r="AD19" s="0" t="n">
         <v>4348800000.0</v>
       </c>
-      <c r="AD19" s="0" t="n">
+      <c r="AE19" s="0" t="n">
         <v>4363200000.0</v>
       </c>
-      <c r="AE19" s="0" t="n">
+      <c r="AF19" s="0" t="n">
         <v>4370900000.0</v>
       </c>
-      <c r="AF19" s="0" t="n">
+      <c r="AG19" s="0" t="n">
         <v>4383200000.0</v>
       </c>
-      <c r="AG19" s="0" t="n">
+      <c r="AH19" s="0" t="n">
         <v>4441000000.0</v>
       </c>
-      <c r="AH19" s="0" t="n">
+      <c r="AI19" s="0" t="n">
         <v>4453800000.0</v>
       </c>
-      <c r="AI19" s="0" t="n">
+      <c r="AJ19" s="0" t="n">
         <v>4240600000.0</v>
       </c>
-      <c r="AJ19" s="0" t="n">
+      <c r="AK19" s="0" t="n">
         <v>4297500000.0</v>
       </c>
-      <c r="AK19" s="0" t="n">
+      <c r="AL19" s="0" t="n">
         <v>4602800000.0</v>
       </c>
-      <c r="AL19" s="0" t="n">
+      <c r="AM19" s="0" t="n">
         <v>4614300000.0</v>
       </c>
-      <c r="AM19" s="0" t="n">
+      <c r="AN19" s="0" t="n">
         <v>4618900000.0</v>
       </c>
-      <c r="AN19" s="0" t="n">
+      <c r="AO19" s="0" t="n">
         <v>4334600000.0</v>
       </c>
     </row>
@@ -2556,120 +2616,123 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
+        <v>406400000.0</v>
+      </c>
+      <c r="C20" s="0" t="n">
         <v>412000000.0</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="D20" s="0" t="n">
         <v>418000000.0</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="E20" s="0" t="n">
         <v>424000000.0</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="F20" s="0" t="n">
         <v>429000000.0</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="G20" s="0" t="n">
         <v>497000000.0</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="H20" s="0" t="n">
         <v>502800000.0</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="I20" s="0" t="n">
         <v>508700000.0</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="J20" s="0" t="n">
         <v>514500000.0</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="K20" s="0" t="n">
         <v>520400000.0</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="L20" s="0" t="n">
         <v>525900000.0</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="M20" s="0" t="n">
         <v>531800000.0</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="N20" s="0" t="n">
         <v>538100000.0</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="O20" s="0" t="n">
         <v>543300000.0</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="P20" s="0" t="n">
         <v>549200000.0</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="Q20" s="0" t="n">
         <v>554600000.0</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="R20" s="0" t="n">
         <v>561000000.0</v>
       </c>
-      <c r="R20" s="0" t="n">
+      <c r="S20" s="0" t="n">
         <v>566200000.0</v>
       </c>
-      <c r="S20" s="0" t="n">
+      <c r="T20" s="0" t="n">
         <v>569500000.0</v>
       </c>
-      <c r="T20" s="0" t="n">
+      <c r="U20" s="0" t="n">
         <v>572300000.0</v>
       </c>
-      <c r="U20" s="0" t="n">
+      <c r="V20" s="0" t="n">
         <v>576100000.0</v>
       </c>
-      <c r="V20" s="0" t="n">
+      <c r="W20" s="0" t="n">
         <v>579400000.0</v>
       </c>
-      <c r="W20" s="0" t="n">
+      <c r="X20" s="0" t="n">
         <v>588100000.0</v>
       </c>
-      <c r="X20" s="0" t="n">
+      <c r="Y20" s="0" t="n">
         <v>596200000.0</v>
       </c>
-      <c r="Y20" s="0" t="n">
+      <c r="Z20" s="0" t="n">
         <v>604700000.0</v>
       </c>
-      <c r="Z20" s="0" t="n">
+      <c r="AA20" s="0" t="n">
         <v>614100000.0</v>
       </c>
-      <c r="AA20" s="0" t="n">
+      <c r="AB20" s="0" t="n">
         <v>627200000.0</v>
       </c>
-      <c r="AB20" s="0" t="n">
+      <c r="AC20" s="0" t="n">
         <v>639700000.0</v>
       </c>
-      <c r="AC20" s="0" t="n">
+      <c r="AD20" s="0" t="n">
         <v>651900000.0</v>
       </c>
-      <c r="AD20" s="0" t="n">
+      <c r="AE20" s="0" t="n">
         <v>664200000.0</v>
       </c>
-      <c r="AE20" s="0" t="n">
+      <c r="AF20" s="0" t="n">
         <v>676800000.0</v>
       </c>
-      <c r="AF20" s="0" t="n">
+      <c r="AG20" s="0" t="n">
         <v>689600000.0</v>
       </c>
-      <c r="AG20" s="0" t="n">
+      <c r="AH20" s="0" t="n">
         <v>702600000.0</v>
       </c>
-      <c r="AH20" s="0" t="n">
+      <c r="AI20" s="0" t="n">
         <v>709700000.0</v>
       </c>
-      <c r="AI20" s="0" t="n">
+      <c r="AJ20" s="0" t="n">
         <v>714100000.0</v>
       </c>
-      <c r="AJ20" s="0" t="n">
+      <c r="AK20" s="0" t="n">
         <v>727500000.0</v>
       </c>
-      <c r="AK20" s="0" t="n">
+      <c r="AL20" s="0" t="n">
         <v>740900000.0</v>
       </c>
-      <c r="AL20" s="0" t="n">
+      <c r="AM20" s="0" t="n">
         <v>754500000.0</v>
       </c>
-      <c r="AM20" s="0" t="n">
+      <c r="AN20" s="0" t="n">
         <v>767700000.0</v>
       </c>
-      <c r="AN20" s="0" t="n">
+      <c r="AO20" s="0" t="n">
         <v>781300000.0</v>
       </c>
     </row>
@@ -2680,120 +2743,123 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
+        <v>319900000.0</v>
+      </c>
+      <c r="C21" s="0" t="n">
         <v>327000000.0</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="D21" s="0" t="n">
         <v>320600000.0</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="E21" s="0" t="n">
         <v>322200000.0</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="F21" s="0" t="n">
         <v>324200000.0</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="G21" s="0" t="n">
         <v>326200000.0</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="H21" s="0" t="n">
         <v>411500000.0</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="I21" s="0" t="n">
         <v>414000000.0</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="J21" s="0" t="n">
         <v>418100000.0</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="K21" s="0" t="n">
         <v>422800000.0</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="L21" s="0" t="n">
         <v>489100000.0</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="M21" s="0" t="n">
         <v>490400000.0</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="N21" s="0" t="n">
         <v>523100000.0</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="O21" s="0" t="n">
         <v>397400000.0</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="P21" s="0" t="n">
         <v>463200000.0</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="Q21" s="0" t="n">
         <v>451000000.0</v>
       </c>
-      <c r="Q21" s="0" t="n">
+      <c r="R21" s="0" t="n">
         <v>458900000.0</v>
       </c>
-      <c r="R21" s="0" t="n">
+      <c r="S21" s="0" t="n">
         <v>498600000.0</v>
       </c>
-      <c r="S21" s="0" t="n">
+      <c r="T21" s="0" t="n">
         <v>545100000.0</v>
       </c>
-      <c r="T21" s="0" t="n">
+      <c r="U21" s="0" t="n">
         <v>541900000.0</v>
       </c>
-      <c r="U21" s="0" t="n">
+      <c r="V21" s="0" t="n">
         <v>541100000.0</v>
       </c>
-      <c r="V21" s="0" t="n">
+      <c r="W21" s="0" t="n">
         <v>543100000.0</v>
       </c>
-      <c r="W21" s="0" t="n">
+      <c r="X21" s="0" t="n">
         <v>427700000.0</v>
       </c>
-      <c r="X21" s="0" t="n">
+      <c r="Y21" s="0" t="n">
         <v>428000000.0</v>
       </c>
-      <c r="Y21" s="0" t="n">
+      <c r="Z21" s="0" t="n">
         <v>203500000.0</v>
       </c>
-      <c r="Z21" s="0" t="n">
+      <c r="AA21" s="0" t="n">
         <v>203800000.0</v>
       </c>
-      <c r="AA21" s="0" t="n">
+      <c r="AB21" s="0" t="n">
         <v>168900000.0</v>
       </c>
-      <c r="AB21" s="0" t="n">
+      <c r="AC21" s="0" t="n">
         <v>169300000.0</v>
       </c>
-      <c r="AC21" s="0" t="n">
+      <c r="AD21" s="0" t="n">
         <v>169500000.0</v>
       </c>
-      <c r="AD21" s="0" t="n">
+      <c r="AE21" s="0" t="n">
         <v>173200000.0</v>
       </c>
-      <c r="AE21" s="0" t="n">
+      <c r="AF21" s="0" t="n">
         <v>214500000.0</v>
       </c>
-      <c r="AF21" s="0" t="n">
+      <c r="AG21" s="0" t="n">
         <v>225200000.0</v>
       </c>
-      <c r="AG21" s="0" t="n">
+      <c r="AH21" s="0" t="n">
         <v>233900000.0</v>
       </c>
-      <c r="AH21" s="0" t="n">
+      <c r="AI21" s="0" t="n">
         <v>244000000.0</v>
       </c>
-      <c r="AI21" s="0" t="n">
+      <c r="AJ21" s="0" t="n">
         <v>149600000.0</v>
       </c>
-      <c r="AJ21" s="0" t="n">
+      <c r="AK21" s="0" t="n">
         <v>251600000.0</v>
       </c>
-      <c r="AK21" s="0" t="n">
+      <c r="AL21" s="0" t="n">
         <v>221000000.0</v>
       </c>
-      <c r="AL21" s="0" t="n">
+      <c r="AM21" s="0" t="n">
         <v>222700000.0</v>
       </c>
-      <c r="AM21" s="0" t="n">
+      <c r="AN21" s="0" t="n">
         <v>100800000.0</v>
       </c>
-      <c r="AN21" s="0" t="n">
+      <c r="AO21" s="0" t="n">
         <v>233500000.0</v>
       </c>
     </row>
@@ -2804,120 +2870,123 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>56900000.0</v>
+        <v>4214100000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>9000000.0</v>
+        <v>4060000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>51400000.0</v>
+        <v>3975000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>92100000.0</v>
+        <v>3946000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>104100000.0</v>
+        <v>3870000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
+        <v>3769000000.0</v>
+      </c>
+      <c r="H22" s="0" t="n">
         <v>3613800000.0</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="I22" s="0" t="n">
         <v>3598100000.0</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="J22" s="0" t="n">
         <v>3459900000.0</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="K22" s="0" t="n">
         <v>3388100000.0</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="L22" s="0" t="n">
         <v>3172100000.0</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="M22" s="0" t="n">
         <v>3117100000.0</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="N22" s="0" t="n">
         <v>3069900000.0</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="O22" s="0" t="n">
         <v>2999800000.0</v>
       </c>
-      <c r="O22" s="0" t="n">
+      <c r="P22" s="0" t="n">
         <v>5616000000.0</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="Q22" s="0" t="n">
         <v>5416100000.0</v>
       </c>
-      <c r="Q22" s="0" t="n">
+      <c r="R22" s="0" t="n">
         <v>5287400000.0</v>
       </c>
-      <c r="R22" s="0" t="n">
+      <c r="S22" s="0" t="n">
         <v>5146600000.0</v>
       </c>
-      <c r="S22" s="0" t="n">
+      <c r="T22" s="0" t="n">
         <v>5067000000.0</v>
       </c>
-      <c r="T22" s="0" t="n">
+      <c r="U22" s="0" t="n">
         <v>4938300000.0</v>
       </c>
-      <c r="U22" s="0" t="n">
+      <c r="V22" s="0" t="n">
         <v>4856500000.0</v>
       </c>
-      <c r="V22" s="0" t="n">
+      <c r="W22" s="0" t="n">
         <v>4622300000.0</v>
       </c>
-      <c r="W22" s="0" t="n">
+      <c r="X22" s="0" t="n">
         <v>4690400000.0</v>
       </c>
-      <c r="X22" s="0" t="n">
+      <c r="Y22" s="0" t="n">
         <v>4624300000.0</v>
       </c>
-      <c r="Y22" s="0" t="n">
+      <c r="Z22" s="0" t="n">
         <v>2942400000.0</v>
       </c>
-      <c r="Z22" s="0" t="n">
+      <c r="AA22" s="0" t="n">
         <v>2664000000.0</v>
       </c>
-      <c r="AA22" s="0" t="n">
+      <c r="AB22" s="0" t="n">
         <v>2752700000.0</v>
       </c>
-      <c r="AB22" s="0" t="n">
+      <c r="AC22" s="0" t="n">
         <v>2714600000.0</v>
       </c>
-      <c r="AC22" s="0" t="n">
+      <c r="AD22" s="0" t="n">
         <v>2699000000.0</v>
       </c>
-      <c r="AD22" s="0" t="n">
+      <c r="AE22" s="0" t="n">
         <v>2634000000.0</v>
       </c>
-      <c r="AE22" s="0" t="n">
+      <c r="AF22" s="0" t="n">
         <v>2470300000.0</v>
       </c>
-      <c r="AF22" s="0" t="n">
+      <c r="AG22" s="0" t="n">
         <v>2369700000.0</v>
       </c>
-      <c r="AG22" s="0" t="n">
+      <c r="AH22" s="0" t="n">
         <v>2275600000.0</v>
       </c>
-      <c r="AH22" s="0" t="n">
+      <c r="AI22" s="0" t="n">
         <v>2117000000.0</v>
       </c>
-      <c r="AI22" s="0" t="n">
+      <c r="AJ22" s="0" t="n">
         <v>1994200000.0</v>
       </c>
-      <c r="AJ22" s="0" t="n">
+      <c r="AK22" s="0" t="n">
         <v>1862500000.0</v>
       </c>
-      <c r="AK22" s="0" t="n">
+      <c r="AL22" s="0" t="n">
         <v>1791200000.0</v>
       </c>
-      <c r="AL22" s="0" t="n">
+      <c r="AM22" s="0" t="n">
         <v>1696100000.0</v>
       </c>
-      <c r="AM22" s="0" t="n">
+      <c r="AN22" s="0" t="n">
         <v>1447300000.0</v>
       </c>
-      <c r="AN22" s="0" t="n">
+      <c r="AO22" s="0" t="n">
         <v>1339800000.0</v>
       </c>
     </row>
@@ -2928,120 +2997,123 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
+        <v>5660000000.0</v>
+      </c>
+      <c r="C23" s="0" t="n">
         <v>5971000000.0</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="D23" s="0" t="n">
         <v>5978000000.0</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="E23" s="0" t="n">
         <v>5974000000.0</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="F23" s="0" t="n">
         <v>6007000000.0</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="G23" s="0" t="n">
         <v>5981000000.0</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="H23" s="0" t="n">
         <v>5947000000.0</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="I23" s="0" t="n">
         <v>5982200000.0</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="J23" s="0" t="n">
         <v>6015900000.0</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="K23" s="0" t="n">
         <v>5976100000.0</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="L23" s="0" t="n">
         <v>5811100000.0</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="M23" s="0" t="n">
         <v>5779600000.0</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="N23" s="0" t="n">
         <v>5732900000.0</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="O23" s="0" t="n">
         <v>5542300000.0</v>
       </c>
-      <c r="O23" s="0" t="n">
+      <c r="P23" s="0" t="n">
         <v>3347000000.0</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="Q23" s="0" t="n">
         <v>3367700000.0</v>
       </c>
-      <c r="Q23" s="0" t="n">
+      <c r="R23" s="0" t="n">
         <v>3355100000.0</v>
       </c>
-      <c r="R23" s="0" t="n">
+      <c r="S23" s="0" t="n">
         <v>3361800000.0</v>
       </c>
-      <c r="S23" s="0" t="n">
+      <c r="T23" s="0" t="n">
         <v>3226400000.0</v>
       </c>
-      <c r="T23" s="0" t="n">
+      <c r="U23" s="0" t="n">
         <v>3219700000.0</v>
       </c>
-      <c r="U23" s="0" t="n">
+      <c r="V23" s="0" t="n">
         <v>3096600000.0</v>
       </c>
-      <c r="V23" s="0" t="n">
+      <c r="W23" s="0" t="n">
         <v>3092100000.0</v>
       </c>
-      <c r="W23" s="0" t="n">
+      <c r="X23" s="0" t="n">
         <v>2958200000.0</v>
       </c>
-      <c r="X23" s="0" t="n">
+      <c r="Y23" s="0" t="n">
         <v>2939900000.0</v>
       </c>
-      <c r="Y23" s="0" t="n">
+      <c r="Z23" s="0" t="n">
         <v>1114500000.0</v>
       </c>
-      <c r="Z23" s="0" t="n">
+      <c r="AA23" s="0" t="n">
         <v>1133600000.0</v>
       </c>
-      <c r="AA23" s="0" t="n">
+      <c r="AB23" s="0" t="n">
         <v>1112200000.0</v>
       </c>
-      <c r="AB23" s="0" t="n">
+      <c r="AC23" s="0" t="n">
         <v>1130400000.0</v>
       </c>
-      <c r="AC23" s="0" t="n">
+      <c r="AD23" s="0" t="n">
         <v>1154600000.0</v>
       </c>
-      <c r="AD23" s="0" t="n">
+      <c r="AE23" s="0" t="n">
         <v>1175000000.0</v>
       </c>
-      <c r="AE23" s="0" t="n">
+      <c r="AF23" s="0" t="n">
         <v>1120600000.0</v>
       </c>
-      <c r="AF23" s="0" t="n">
+      <c r="AG23" s="0" t="n">
         <v>1142800000.0</v>
       </c>
-      <c r="AG23" s="0" t="n">
+      <c r="AH23" s="0" t="n">
         <v>1130100000.0</v>
       </c>
-      <c r="AH23" s="0" t="n">
+      <c r="AI23" s="0" t="n">
         <v>1153600000.0</v>
       </c>
-      <c r="AI23" s="0" t="n">
+      <c r="AJ23" s="0" t="n">
         <v>1171600000.0</v>
       </c>
-      <c r="AJ23" s="0" t="n">
+      <c r="AK23" s="0" t="n">
         <v>1208600000.0</v>
       </c>
-      <c r="AK23" s="0" t="n">
+      <c r="AL23" s="0" t="n">
         <v>1211600000.0</v>
       </c>
-      <c r="AL23" s="0" t="n">
+      <c r="AM23" s="0" t="n">
         <v>1216300000.0</v>
       </c>
-      <c r="AM23" s="0" t="n">
+      <c r="AN23" s="0" t="n">
         <v>1254300000.0</v>
       </c>
-      <c r="AN23" s="0" t="n">
+      <c r="AO23" s="0" t="n">
         <v>1265400000.0</v>
       </c>
     </row>
@@ -3052,120 +3124,123 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
+        <v>22918100000.0</v>
+      </c>
+      <c r="C24" s="0" t="n">
         <v>22217500000.0</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="D24" s="0" t="n">
         <v>22022900000.0</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="E24" s="0" t="n">
         <v>21064700000.0</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="F24" s="0" t="n">
         <v>21499900000.0</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="G24" s="0" t="n">
         <v>21514500000.0</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="H24" s="0" t="n">
         <v>21372400000.0</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="I24" s="0" t="n">
         <v>20424000000.0</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="J24" s="0" t="n">
         <v>20735100000.0</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="K24" s="0" t="n">
         <v>20301400000.0</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="L24" s="0" t="n">
         <v>19117200000.0</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="M24" s="0" t="n">
         <v>19128200000.0</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="N24" s="0" t="n">
         <v>18481500000.0</v>
       </c>
-      <c r="N24" s="0" t="n">
+      <c r="O24" s="0" t="n">
         <v>18229400000.0</v>
       </c>
-      <c r="O24" s="0" t="n">
+      <c r="P24" s="0" t="n">
         <v>18761200000.0</v>
       </c>
-      <c r="P24" s="0" t="n">
+      <c r="Q24" s="0" t="n">
         <v>18589100000.0</v>
       </c>
-      <c r="Q24" s="0" t="n">
+      <c r="R24" s="0" t="n">
         <v>18806000000.0</v>
       </c>
-      <c r="R24" s="0" t="n">
+      <c r="S24" s="0" t="n">
         <v>18731400000.0</v>
       </c>
-      <c r="S24" s="0" t="n">
+      <c r="T24" s="0" t="n">
         <v>18496100000.0</v>
       </c>
-      <c r="T24" s="0" t="n">
+      <c r="U24" s="0" t="n">
         <v>18174300000.0</v>
       </c>
-      <c r="U24" s="0" t="n">
+      <c r="V24" s="0" t="n">
         <v>18026100000.0</v>
       </c>
-      <c r="V24" s="0" t="n">
+      <c r="W24" s="0" t="n">
         <v>17961000000.0</v>
       </c>
-      <c r="W24" s="0" t="n">
+      <c r="X24" s="0" t="n">
         <v>17391400000.0</v>
       </c>
-      <c r="X24" s="0" t="n">
+      <c r="Y24" s="0" t="n">
         <v>17136000000.0</v>
       </c>
-      <c r="Y24" s="0" t="n">
+      <c r="Z24" s="0" t="n">
         <v>9034300000.0</v>
       </c>
-      <c r="Z24" s="0" t="n">
+      <c r="AA24" s="0" t="n">
         <v>8786200000.0</v>
       </c>
-      <c r="AA24" s="0" t="n">
+      <c r="AB24" s="0" t="n">
         <v>9230601000.0</v>
       </c>
-      <c r="AB24" s="0" t="n">
+      <c r="AC24" s="0" t="n">
         <v>9241500000.0</v>
       </c>
-      <c r="AC24" s="0" t="n">
+      <c r="AD24" s="0" t="n">
         <v>9023800000.0</v>
       </c>
-      <c r="AD24" s="0" t="n">
+      <c r="AE24" s="0" t="n">
         <v>9009602000.0</v>
       </c>
-      <c r="AE24" s="0" t="n">
+      <c r="AF24" s="0" t="n">
         <v>8853101000.0</v>
       </c>
-      <c r="AF24" s="0" t="n">
+      <c r="AG24" s="0" t="n">
         <v>8810501000.0</v>
       </c>
-      <c r="AG24" s="0" t="n">
+      <c r="AH24" s="0" t="n">
         <v>8783201000.0</v>
       </c>
-      <c r="AH24" s="0" t="n">
+      <c r="AI24" s="0" t="n">
         <v>8678101000.0</v>
       </c>
-      <c r="AI24" s="0" t="n">
+      <c r="AJ24" s="0" t="n">
         <v>8270101000.0</v>
       </c>
-      <c r="AJ24" s="0" t="n">
+      <c r="AK24" s="0" t="n">
         <v>8347700000.0</v>
       </c>
-      <c r="AK24" s="0" t="n">
+      <c r="AL24" s="0" t="n">
         <v>8567500000.0</v>
       </c>
-      <c r="AL24" s="0" t="n">
+      <c r="AM24" s="0" t="n">
         <v>8503900000.0</v>
       </c>
-      <c r="AM24" s="0" t="n">
+      <c r="AN24" s="0" t="n">
         <v>8189000000.0</v>
       </c>
-      <c r="AN24" s="0" t="n">
+      <c r="AO24" s="0" t="n">
         <v>7954600000.0</v>
       </c>
     </row>
@@ -3176,120 +3251,123 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
+        <v>26633000000.0</v>
+      </c>
+      <c r="C25" s="0" t="n">
         <v>27265000000.0</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="D25" s="0" t="n">
         <v>24863000000.0</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="E25" s="0" t="n">
         <v>24549000000.0</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="F25" s="0" t="n">
         <v>24348000000.0</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="G25" s="0" t="n">
         <v>25582000000.0</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="H25" s="0" t="n">
         <v>24190800000.0</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="I25" s="0" t="n">
         <v>23786000000.0</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="J25" s="0" t="n">
         <v>23625000000.0</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="K25" s="0" t="n">
         <v>23633100000.0</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="L25" s="0" t="n">
         <v>22719700000.0</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="M25" s="0" t="n">
         <v>22181400000.0</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="N25" s="0" t="n">
         <v>22087400000.0</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="O25" s="0" t="n">
         <v>22098700000.0</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="P25" s="0" t="n">
         <v>21787300000.0</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="Q25" s="0" t="n">
         <v>21376400000.0</v>
       </c>
-      <c r="Q25" s="0" t="n">
+      <c r="R25" s="0" t="n">
         <v>20860600000.0</v>
       </c>
-      <c r="R25" s="0" t="n">
+      <c r="S25" s="0" t="n">
         <v>21163000000.0</v>
       </c>
-      <c r="S25" s="0" t="n">
+      <c r="T25" s="0" t="n">
         <v>20521600000.0</v>
       </c>
-      <c r="T25" s="0" t="n">
+      <c r="U25" s="0" t="n">
         <v>20311400000.0</v>
       </c>
-      <c r="U25" s="0" t="n">
+      <c r="V25" s="0" t="n">
         <v>20255900000.0</v>
       </c>
-      <c r="V25" s="0" t="n">
+      <c r="W25" s="0" t="n">
         <v>20670000000.0</v>
       </c>
-      <c r="W25" s="0" t="n">
+      <c r="X25" s="0" t="n">
         <v>20058200000.0</v>
       </c>
-      <c r="X25" s="0" t="n">
+      <c r="Y25" s="0" t="n">
         <v>20076300000.0</v>
       </c>
-      <c r="Y25" s="0" t="n">
+      <c r="Z25" s="0" t="n">
         <v>10594600000.0</v>
       </c>
-      <c r="Z25" s="0" t="n">
+      <c r="AA25" s="0" t="n">
         <v>10454900000.0</v>
       </c>
-      <c r="AA25" s="0" t="n">
+      <c r="AB25" s="0" t="n">
         <v>10296200000.0</v>
       </c>
-      <c r="AB25" s="0" t="n">
+      <c r="AC25" s="0" t="n">
         <v>10222300000.0</v>
       </c>
-      <c r="AC25" s="0" t="n">
+      <c r="AD25" s="0" t="n">
         <v>10448400000.0</v>
       </c>
-      <c r="AD25" s="0" t="n">
+      <c r="AE25" s="0" t="n">
         <v>10506000000.0</v>
       </c>
-      <c r="AE25" s="0" t="n">
+      <c r="AF25" s="0" t="n">
         <v>10144300000.0</v>
       </c>
-      <c r="AF25" s="0" t="n">
+      <c r="AG25" s="0" t="n">
         <v>10091200000.0</v>
       </c>
-      <c r="AG25" s="0" t="n">
+      <c r="AH25" s="0" t="n">
         <v>10061300000.0</v>
       </c>
-      <c r="AH25" s="0" t="n">
+      <c r="AI25" s="0" t="n">
         <v>10119500000.0</v>
       </c>
-      <c r="AI25" s="0" t="n">
+      <c r="AJ25" s="0" t="n">
         <v>9657100000.0</v>
       </c>
-      <c r="AJ25" s="0" t="n">
+      <c r="AK25" s="0" t="n">
         <v>9776100000.0</v>
       </c>
-      <c r="AK25" s="0" t="n">
+      <c r="AL25" s="0" t="n">
         <v>9739400000.0</v>
       </c>
-      <c r="AL25" s="0" t="n">
+      <c r="AM25" s="0" t="n">
         <v>9868400000.0</v>
       </c>
-      <c r="AM25" s="0" t="n">
+      <c r="AN25" s="0" t="n">
         <v>9278400000.0</v>
       </c>
-      <c r="AN25" s="0" t="n">
+      <c r="AO25" s="0" t="n">
         <v>9098300000.0</v>
       </c>
     </row>
@@ -3300,89 +3378,87 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
+        <v>4143600000.0</v>
+      </c>
+      <c r="C26" s="0" t="n">
         <v>4143700000.0</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="D26" s="0" t="n">
         <v>4163800000.0</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="E26" s="0" t="n">
         <v>4165000000.0</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="F26" s="0" t="n">
         <v>4167300000.0</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="G26" s="0" t="n">
         <v>4186600000.0</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="H26" s="0" t="n">
         <v>4185000000.0</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="I26" s="0" t="n">
         <v>4197900000.0</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="J26" s="0" t="n">
         <v>4213200000.0</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="K26" s="0" t="n">
         <v>4250100000.0</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="L26" s="0" t="n">
         <v>4261600000.0</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="M26" s="0" t="n">
         <v>4271000000.0</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="N26" s="0" t="n">
         <v>4267300000.0</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="O26" s="0" t="n">
         <v>4278500000.0</v>
       </c>
-      <c r="O26" s="0" t="n">
+      <c r="P26" s="0" t="n">
         <v>4281400000.0</v>
       </c>
-      <c r="P26" s="0" t="n">
+      <c r="Q26" s="0" t="n">
         <v>4290100000.0</v>
       </c>
-      <c r="Q26" s="0" t="n">
+      <c r="R26" s="0" t="n">
         <v>4297700000.0</v>
       </c>
-      <c r="R26" s="0" t="n">
+      <c r="S26" s="0" t="n">
         <v>4309800000.0</v>
       </c>
-      <c r="S26" s="0" t="n">
+      <c r="T26" s="0" t="n">
         <v>4308800000.0</v>
       </c>
-      <c r="T26" s="0" t="n">
+      <c r="U26" s="0" t="n">
         <v>4310900000.0</v>
       </c>
-      <c r="U26" s="0" t="n">
+      <c r="V26" s="0" t="n">
         <v>4321100000.0</v>
       </c>
-      <c r="V26" s="0" t="n">
+      <c r="W26" s="0" t="n">
         <v>4347200000.0</v>
       </c>
-      <c r="W26" s="0" t="n">
+      <c r="X26" s="0" t="n">
         <v>4350600000.0</v>
       </c>
-      <c r="X26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="Y26" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="Z26" s="0" t="n">
+      <c r="Z26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA26" s="0" t="n">
         <v>300100000.0</v>
       </c>
-      <c r="AA26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AB26" s="0" t="inlineStr">
         <is>
           <t/>
@@ -3393,14 +3469,14 @@
           <t/>
         </is>
       </c>
-      <c r="AD26" s="0" t="n">
+      <c r="AD26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE26" s="0" t="n">
         <v>349700000.0</v>
       </c>
-      <c r="AE26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AF26" s="0" t="inlineStr">
         <is>
           <t/>
@@ -3411,14 +3487,14 @@
           <t/>
         </is>
       </c>
-      <c r="AH26" s="0" t="n">
+      <c r="AH26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI26" s="0" t="n">
         <v>500300000.0</v>
       </c>
-      <c r="AI26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AJ26" s="0" t="inlineStr">
         <is>
           <t/>
@@ -3429,15 +3505,20 @@
           <t/>
         </is>
       </c>
-      <c r="AL26" s="0" t="n">
+      <c r="AL26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM26" s="0" t="n">
         <v>598500000.0</v>
       </c>
-      <c r="AM26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AN26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO26" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3513,13 +3594,13 @@
         <v>30400000.0</v>
       </c>
       <c r="W27" s="0" t="n">
-        <v>81500000.0</v>
+        <v>30400000.0</v>
       </c>
       <c r="X27" s="0" t="n">
         <v>81500000.0</v>
       </c>
       <c r="Y27" s="0" t="n">
-        <v>30400000.0</v>
+        <v>81500000.0</v>
       </c>
       <c r="Z27" s="0" t="n">
         <v>30400000.0</v>
@@ -3564,6 +3645,9 @@
         <v>30400000.0</v>
       </c>
       <c r="AN27" s="0" t="n">
+        <v>30400000.0</v>
+      </c>
+      <c r="AO27" s="0" t="n">
         <v>30400000.0</v>
       </c>
     </row>
@@ -3574,7 +3658,7 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>3000000.0</v>
+        <v>3200000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>3000000.0</v>
@@ -3589,7 +3673,7 @@
         <v>3000000.0</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>3200000.0</v>
+        <v>3000000.0</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>3200000.0</v>
@@ -3639,24 +3723,22 @@
       <c r="W28" s="0" t="n">
         <v>3200000.0</v>
       </c>
-      <c r="X28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="X28" s="0" t="n">
+        <v>3200000.0</v>
       </c>
       <c r="Y28" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="Z28" s="0" t="n">
+      <c r="Z28" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA28" s="0" t="n">
         <v>2300000.0</v>
       </c>
-      <c r="AA28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AB28" s="0" t="inlineStr">
         <is>
           <t/>
@@ -3667,14 +3749,14 @@
           <t/>
         </is>
       </c>
-      <c r="AD28" s="0" t="n">
+      <c r="AD28" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE28" s="0" t="n">
         <v>2300000.0</v>
       </c>
-      <c r="AE28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AF28" s="0" t="inlineStr">
         <is>
           <t/>
@@ -3685,14 +3767,14 @@
           <t/>
         </is>
       </c>
-      <c r="AH28" s="0" t="n">
+      <c r="AH28" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI28" s="0" t="n">
         <v>2300000.0</v>
       </c>
-      <c r="AI28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AJ28" s="0" t="inlineStr">
         <is>
           <t/>
@@ -3703,15 +3785,20 @@
           <t/>
         </is>
       </c>
-      <c r="AL28" s="0" t="n">
+      <c r="AL28" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM28" s="0" t="n">
         <v>2300000.0</v>
       </c>
-      <c r="AM28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AN28" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO28" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3724,89 +3811,87 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
+        <v>6626000000.0</v>
+      </c>
+      <c r="C29" s="0" t="n">
         <v>6330000000.0</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="D29" s="0" t="n">
         <v>6290000000.0</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="E29" s="0" t="n">
         <v>6223000000.0</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="F29" s="0" t="n">
         <v>6181000000.0</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="G29" s="0" t="n">
         <v>5928000000.0</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="H29" s="0" t="n">
         <v>5869900000.0</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="I29" s="0" t="n">
         <v>5821700000.0</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="J29" s="0" t="n">
         <v>5772100000.0</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="K29" s="0" t="n">
         <v>5538200000.0</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="L29" s="0" t="n">
         <v>5508100000.0</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="M29" s="0" t="n">
         <v>5449100000.0</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="N29" s="0" t="n">
         <v>5392700000.0</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="O29" s="0" t="n">
         <v>5176800000.0</v>
       </c>
-      <c r="O29" s="0" t="n">
+      <c r="P29" s="0" t="n">
         <v>4908300000.0</v>
       </c>
-      <c r="P29" s="0" t="n">
+      <c r="Q29" s="0" t="n">
         <v>4857000000.0</v>
       </c>
-      <c r="Q29" s="0" t="n">
+      <c r="R29" s="0" t="n">
         <v>4822000000.0</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="S29" s="0" t="n">
         <v>4613900000.0</v>
       </c>
-      <c r="S29" s="0" t="n">
+      <c r="T29" s="0" t="n">
         <v>4575800000.0</v>
       </c>
-      <c r="T29" s="0" t="n">
+      <c r="U29" s="0" t="n">
         <v>4515000000.0</v>
       </c>
-      <c r="U29" s="0" t="n">
+      <c r="V29" s="0" t="n">
         <v>4489700000.0</v>
       </c>
-      <c r="V29" s="0" t="n">
+      <c r="W29" s="0" t="n">
         <v>4299800000.0</v>
       </c>
-      <c r="W29" s="0" t="n">
+      <c r="X29" s="0" t="n">
         <v>4264900000.0</v>
       </c>
-      <c r="X29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="Y29" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="Z29" s="0" t="n">
+      <c r="Z29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA29" s="0" t="n">
         <v>4117000000.0</v>
       </c>
-      <c r="AA29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AB29" s="0" t="inlineStr">
         <is>
           <t/>
@@ -3817,14 +3902,14 @@
           <t/>
         </is>
       </c>
-      <c r="AD29" s="0" t="n">
+      <c r="AD29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE29" s="0" t="n">
         <v>3881000000.0</v>
       </c>
-      <c r="AE29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AF29" s="0" t="inlineStr">
         <is>
           <t/>
@@ -3835,14 +3920,14 @@
           <t/>
         </is>
       </c>
-      <c r="AH29" s="0" t="n">
+      <c r="AH29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI29" s="0" t="n">
         <v>3632500000.0</v>
       </c>
-      <c r="AI29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AJ29" s="0" t="inlineStr">
         <is>
           <t/>
@@ -3853,15 +3938,20 @@
           <t/>
         </is>
       </c>
-      <c r="AL29" s="0" t="n">
+      <c r="AL29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM29" s="0" t="n">
         <v>3362500000.0</v>
       </c>
-      <c r="AM29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AN29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO29" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3874,120 +3964,123 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
+        <v>10937200000.0</v>
+      </c>
+      <c r="C30" s="0" t="n">
         <v>10470000000.0</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="D30" s="0" t="n">
         <v>10451000000.0</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="E30" s="0" t="n">
         <v>10384000000.0</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="F30" s="0" t="n">
         <v>10344000000.0</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="G30" s="0" t="n">
         <v>10113000000.0</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="H30" s="0" t="n">
         <v>10156000000.0</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="I30" s="0" t="n">
         <v>10117900000.0</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="J30" s="0" t="n">
         <v>10081700000.0</v>
-      </c>
-      <c r="J30" s="0" t="n">
-        <v>9812301000.0</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>9812301000.0</v>
       </c>
       <c r="L30" s="0" t="n">
+        <v>9812301000.0</v>
+      </c>
+      <c r="M30" s="0" t="n">
         <v>9725801000.0</v>
       </c>
-      <c r="M30" s="0" t="n">
+      <c r="N30" s="0" t="n">
         <v>9667800000.0</v>
       </c>
-      <c r="N30" s="0" t="n">
+      <c r="O30" s="0" t="n">
         <v>9461400000.0</v>
       </c>
-      <c r="O30" s="0" t="n">
+      <c r="P30" s="0" t="n">
         <v>9195301000.0</v>
       </c>
-      <c r="P30" s="0" t="n">
+      <c r="Q30" s="0" t="n">
         <v>9152801000.0</v>
       </c>
-      <c r="Q30" s="0" t="n">
+      <c r="R30" s="0" t="n">
         <v>9125601000.0</v>
       </c>
-      <c r="R30" s="0" t="n">
+      <c r="S30" s="0" t="n">
         <v>8929801000.0</v>
       </c>
-      <c r="S30" s="0" t="n">
+      <c r="T30" s="0" t="n">
         <v>8891500000.0</v>
       </c>
-      <c r="T30" s="0" t="n">
+      <c r="U30" s="0" t="n">
         <v>8833500000.0</v>
       </c>
-      <c r="U30" s="0" t="n">
+      <c r="V30" s="0" t="n">
         <v>8818300000.0</v>
       </c>
-      <c r="V30" s="0" t="n">
+      <c r="W30" s="0" t="n">
         <v>8654800000.0</v>
       </c>
-      <c r="W30" s="0" t="n">
+      <c r="X30" s="0" t="n">
         <v>8629900000.0</v>
       </c>
-      <c r="X30" s="0" t="n">
+      <c r="Y30" s="0" t="n">
         <v>8456700000.0</v>
       </c>
-      <c r="Y30" s="0" t="n">
+      <c r="Z30" s="0" t="n">
         <v>4510600000.0</v>
       </c>
-      <c r="Z30" s="0" t="n">
+      <c r="AA30" s="0" t="n">
         <v>4419700000.0</v>
       </c>
-      <c r="AA30" s="0" t="n">
+      <c r="AB30" s="0" t="n">
         <v>4398300000.0</v>
       </c>
-      <c r="AB30" s="0" t="n">
+      <c r="AC30" s="0" t="n">
         <v>4367100000.0</v>
       </c>
-      <c r="AC30" s="0" t="n">
+      <c r="AD30" s="0" t="n">
         <v>4322000000.0</v>
       </c>
-      <c r="AD30" s="0" t="n">
+      <c r="AE30" s="0" t="n">
         <v>4233000000.0</v>
       </c>
-      <c r="AE30" s="0" t="n">
+      <c r="AF30" s="0" t="n">
         <v>4198100000.0</v>
       </c>
-      <c r="AF30" s="0" t="n">
+      <c r="AG30" s="0" t="n">
         <v>4195400000.0</v>
       </c>
-      <c r="AG30" s="0" t="n">
+      <c r="AH30" s="0" t="n">
         <v>4203600000.0</v>
       </c>
-      <c r="AH30" s="0" t="n">
+      <c r="AI30" s="0" t="n">
         <v>4135100000.0</v>
       </c>
-      <c r="AI30" s="0" t="n">
+      <c r="AJ30" s="0" t="n">
         <v>4147200000.0</v>
       </c>
-      <c r="AJ30" s="0" t="n">
+      <c r="AK30" s="0" t="n">
         <v>4081100000.0</v>
       </c>
-      <c r="AK30" s="0" t="n">
+      <c r="AL30" s="0" t="n">
         <v>4051500000.0</v>
       </c>
-      <c r="AL30" s="0" t="n">
+      <c r="AM30" s="0" t="n">
         <v>3963300000.0</v>
       </c>
-      <c r="AM30" s="0" t="n">
+      <c r="AN30" s="0" t="n">
         <v>3940700000.0</v>
       </c>
-      <c r="AN30" s="0" t="n">
+      <c r="AO30" s="0" t="n">
         <v>3947600000.0</v>
       </c>
     </row>
@@ -3998,120 +4091,123 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
+        <v>10967600000.0</v>
+      </c>
+      <c r="C31" s="0" t="n">
         <v>10500000000.0</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="D31" s="0" t="n">
         <v>10481000000.0</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="E31" s="0" t="n">
         <v>10414000000.0</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="F31" s="0" t="n">
         <v>10375000000.0</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="G31" s="0" t="n">
         <v>10144000000.0</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="H31" s="0" t="n">
         <v>10186400000.0</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="I31" s="0" t="n">
         <v>10148330000.0</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="J31" s="0" t="n">
         <v>10112100000.0</v>
-      </c>
-      <c r="J31" s="0" t="n">
-        <v>9842700000.0</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>9842700000.0</v>
       </c>
       <c r="L31" s="0" t="n">
+        <v>9842700000.0</v>
+      </c>
+      <c r="M31" s="0" t="n">
         <v>9756200000.0</v>
       </c>
-      <c r="M31" s="0" t="n">
+      <c r="N31" s="0" t="n">
         <v>9698200000.0</v>
       </c>
-      <c r="N31" s="0" t="n">
+      <c r="O31" s="0" t="n">
         <v>9491800000.0</v>
       </c>
-      <c r="O31" s="0" t="n">
+      <c r="P31" s="0" t="n">
         <v>9225700000.0</v>
       </c>
-      <c r="P31" s="0" t="n">
+      <c r="Q31" s="0" t="n">
         <v>9183200000.0</v>
       </c>
-      <c r="Q31" s="0" t="n">
+      <c r="R31" s="0" t="n">
         <v>9156000000.0</v>
       </c>
-      <c r="R31" s="0" t="n">
+      <c r="S31" s="0" t="n">
         <v>8960200000.0</v>
       </c>
-      <c r="S31" s="0" t="n">
+      <c r="T31" s="0" t="n">
         <v>8921900000.0</v>
       </c>
-      <c r="T31" s="0" t="n">
+      <c r="U31" s="0" t="n">
         <v>8863900000.0</v>
       </c>
-      <c r="U31" s="0" t="n">
+      <c r="V31" s="0" t="n">
         <v>8848700000.0</v>
       </c>
-      <c r="V31" s="0" t="n">
+      <c r="W31" s="0" t="n">
         <v>8685200000.0</v>
       </c>
-      <c r="W31" s="0" t="n">
+      <c r="X31" s="0" t="n">
         <v>8711400000.0</v>
       </c>
-      <c r="X31" s="0" t="n">
+      <c r="Y31" s="0" t="n">
         <v>8538200000.0</v>
       </c>
-      <c r="Y31" s="0" t="n">
+      <c r="Z31" s="0" t="n">
         <v>4541000000.0</v>
       </c>
-      <c r="Z31" s="0" t="n">
+      <c r="AA31" s="0" t="n">
         <v>4450100000.0</v>
       </c>
-      <c r="AA31" s="0" t="n">
+      <c r="AB31" s="0" t="n">
         <v>4428700000.0</v>
       </c>
-      <c r="AB31" s="0" t="n">
+      <c r="AC31" s="0" t="n">
         <v>4397500000.0</v>
       </c>
-      <c r="AC31" s="0" t="n">
+      <c r="AD31" s="0" t="n">
         <v>4352400000.0</v>
       </c>
-      <c r="AD31" s="0" t="n">
+      <c r="AE31" s="0" t="n">
         <v>4263400000.0</v>
       </c>
-      <c r="AE31" s="0" t="n">
+      <c r="AF31" s="0" t="n">
         <v>4228500000.0</v>
       </c>
-      <c r="AF31" s="0" t="n">
+      <c r="AG31" s="0" t="n">
         <v>4225800000.0</v>
       </c>
-      <c r="AG31" s="0" t="n">
+      <c r="AH31" s="0" t="n">
         <v>4234000000.0</v>
       </c>
-      <c r="AH31" s="0" t="n">
+      <c r="AI31" s="0" t="n">
         <v>4165500000.0</v>
       </c>
-      <c r="AI31" s="0" t="n">
+      <c r="AJ31" s="0" t="n">
         <v>4177600000.0</v>
       </c>
-      <c r="AJ31" s="0" t="n">
+      <c r="AK31" s="0" t="n">
         <v>4111500000.0</v>
       </c>
-      <c r="AK31" s="0" t="n">
+      <c r="AL31" s="0" t="n">
         <v>4081900000.0</v>
       </c>
-      <c r="AL31" s="0" t="n">
+      <c r="AM31" s="0" t="n">
         <v>3993700000.0</v>
       </c>
-      <c r="AM31" s="0" t="n">
+      <c r="AN31" s="0" t="n">
         <v>3971100000.0</v>
       </c>
-      <c r="AN31" s="0" t="n">
+      <c r="AO31" s="0" t="n">
         <v>3978000000.0</v>
       </c>
     </row>
@@ -4122,120 +4218,123 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
+        <v>37600600000.0</v>
+      </c>
+      <c r="C32" s="0" t="n">
         <v>37028100000.0</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="D32" s="0" t="n">
         <v>35422000000.0</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="E32" s="0" t="n">
         <v>35042000000.0</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="F32" s="0" t="n">
         <v>34832200000.0</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="G32" s="0" t="n">
         <v>34951800000.0</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="H32" s="0" t="n">
         <v>34377200000.0</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="I32" s="0" t="n">
         <v>33934300000.0</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="J32" s="0" t="n">
         <v>33737100000.0</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="K32" s="0" t="n">
         <v>33475800000.0</v>
       </c>
-      <c r="K32" s="0" t="n">
+      <c r="L32" s="0" t="n">
         <v>32562400000.0</v>
       </c>
-      <c r="L32" s="0" t="n">
+      <c r="M32" s="0" t="n">
         <v>31937600000.0</v>
       </c>
-      <c r="M32" s="0" t="n">
+      <c r="N32" s="0" t="n">
         <v>31785600000.0</v>
       </c>
-      <c r="N32" s="0" t="n">
+      <c r="O32" s="0" t="n">
         <v>31590500000.0</v>
       </c>
-      <c r="O32" s="0" t="n">
+      <c r="P32" s="0" t="n">
         <v>31013000000.0</v>
       </c>
-      <c r="P32" s="0" t="n">
+      <c r="Q32" s="0" t="n">
         <v>30559600000.0</v>
       </c>
-      <c r="Q32" s="0" t="n">
+      <c r="R32" s="0" t="n">
         <v>30016600000.0</v>
       </c>
-      <c r="R32" s="0" t="n">
+      <c r="S32" s="0" t="n">
         <v>30123200000.0</v>
       </c>
-      <c r="S32" s="0" t="n">
+      <c r="T32" s="0" t="n">
         <v>29443500000.0</v>
       </c>
-      <c r="T32" s="0" t="n">
+      <c r="U32" s="0" t="n">
         <v>29175300000.0</v>
       </c>
-      <c r="U32" s="0" t="n">
+      <c r="V32" s="0" t="n">
         <v>29104600000.0</v>
       </c>
-      <c r="V32" s="0" t="n">
+      <c r="W32" s="0" t="n">
         <v>29355200000.0</v>
       </c>
-      <c r="W32" s="0" t="n">
+      <c r="X32" s="0" t="n">
         <v>28769600000.0</v>
       </c>
-      <c r="X32" s="0" t="n">
+      <c r="Y32" s="0" t="n">
         <v>28614500000.0</v>
       </c>
-      <c r="Y32" s="0" t="n">
+      <c r="Z32" s="0" t="n">
         <v>15135600000.0</v>
       </c>
-      <c r="Z32" s="0" t="n">
+      <c r="AA32" s="0" t="n">
         <v>14905000000.0</v>
       </c>
-      <c r="AA32" s="0" t="n">
+      <c r="AB32" s="0" t="n">
         <v>14724900000.0</v>
       </c>
-      <c r="AB32" s="0" t="n">
+      <c r="AC32" s="0" t="n">
         <v>14619800000.0</v>
       </c>
-      <c r="AC32" s="0" t="n">
+      <c r="AD32" s="0" t="n">
         <v>14800800000.0</v>
       </c>
-      <c r="AD32" s="0" t="n">
+      <c r="AE32" s="0" t="n">
         <v>14769400000.0</v>
       </c>
-      <c r="AE32" s="0" t="n">
+      <c r="AF32" s="0" t="n">
         <v>14372800000.0</v>
       </c>
-      <c r="AF32" s="0" t="n">
+      <c r="AG32" s="0" t="n">
         <v>14317000000.0</v>
       </c>
-      <c r="AG32" s="0" t="n">
+      <c r="AH32" s="0" t="n">
         <v>14295300000.0</v>
       </c>
-      <c r="AH32" s="0" t="n">
+      <c r="AI32" s="0" t="n">
         <v>14285000000.0</v>
       </c>
-      <c r="AI32" s="0" t="n">
+      <c r="AJ32" s="0" t="n">
         <v>13834700000.0</v>
       </c>
-      <c r="AJ32" s="0" t="n">
+      <c r="AK32" s="0" t="n">
         <v>13887600000.0</v>
       </c>
-      <c r="AK32" s="0" t="n">
+      <c r="AL32" s="0" t="n">
         <v>13821300000.0</v>
       </c>
-      <c r="AL32" s="0" t="n">
+      <c r="AM32" s="0" t="n">
         <v>13862100000.0</v>
       </c>
-      <c r="AM32" s="0" t="n">
+      <c r="AN32" s="0" t="n">
         <v>13249500000.0</v>
       </c>
-      <c r="AN32" s="0" t="n">
+      <c r="AO32" s="0" t="n">
         <v>13076300000.0</v>
       </c>
     </row>
@@ -4261,105 +4360,108 @@
         <v>315435000.0</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>315436000.0</v>
+        <v>315435000.0</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>315436000.0</v>
       </c>
       <c r="I33" s="0" t="n">
+        <v>315436000.0</v>
+      </c>
+      <c r="J33" s="0" t="n">
         <v>315438000.0</v>
       </c>
-      <c r="J33" s="0" t="n">
+      <c r="K33" s="0" t="n">
         <v>315523000.0</v>
       </c>
-      <c r="K33" s="0" t="n">
+      <c r="L33" s="0" t="n">
         <v>315526000.0</v>
       </c>
-      <c r="L33" s="0" t="n">
+      <c r="M33" s="0" t="n">
         <v>315533000.0</v>
       </c>
-      <c r="M33" s="0" t="n">
+      <c r="N33" s="0" t="n">
         <v>315539000.0</v>
       </c>
-      <c r="N33" s="0" t="n">
+      <c r="O33" s="0" t="n">
         <v>315575000.0</v>
       </c>
-      <c r="O33" s="0" t="n">
+      <c r="P33" s="0" t="n">
         <v>315576000.0</v>
       </c>
-      <c r="P33" s="0" t="n">
+      <c r="Q33" s="0" t="n">
         <v>315577000.0</v>
       </c>
-      <c r="Q33" s="0" t="n">
+      <c r="R33" s="0" t="n">
         <v>315579000.0</v>
       </c>
-      <c r="R33" s="0" t="n">
+      <c r="S33" s="0" t="n">
         <v>315615000.0</v>
       </c>
-      <c r="S33" s="0" t="n">
+      <c r="T33" s="0" t="n">
         <v>315617000.0</v>
       </c>
-      <c r="T33" s="0" t="n">
+      <c r="U33" s="0" t="n">
         <v>315620000.0</v>
       </c>
-      <c r="U33" s="0" t="n">
+      <c r="V33" s="0" t="n">
         <v>315647000.0</v>
       </c>
-      <c r="V33" s="0" t="n">
+      <c r="W33" s="0" t="n">
         <v>315683000.0</v>
-      </c>
-      <c r="W33" s="0" t="n">
-        <v>315684000.0</v>
       </c>
       <c r="X33" s="0" t="n">
         <v>315684000.0</v>
       </c>
       <c r="Y33" s="0" t="n">
+        <v>315684000.0</v>
+      </c>
+      <c r="Z33" s="0" t="n">
         <v>225497000.0</v>
-      </c>
-      <c r="Z33" s="0" t="n">
-        <v>225517000.0</v>
       </c>
       <c r="AA33" s="0" t="n">
         <v>225517000.0</v>
       </c>
       <c r="AB33" s="0" t="n">
-        <v>225519000.0</v>
+        <v>225517000.0</v>
       </c>
       <c r="AC33" s="0" t="n">
         <v>225519000.0</v>
       </c>
       <c r="AD33" s="0" t="n">
+        <v>225519000.0</v>
+      </c>
+      <c r="AE33" s="0" t="n">
         <v>225963000.0</v>
       </c>
-      <c r="AE33" s="0" t="n">
+      <c r="AF33" s="0" t="n">
         <v>226520000.0</v>
       </c>
-      <c r="AF33" s="0" t="n">
+      <c r="AG33" s="0" t="n">
         <v>227667000.0</v>
       </c>
-      <c r="AG33" s="0" t="n">
+      <c r="AH33" s="0" t="n">
         <v>228723000.0</v>
       </c>
-      <c r="AH33" s="0" t="n">
+      <c r="AI33" s="0" t="n">
         <v>229039000.0</v>
       </c>
-      <c r="AI33" s="0" t="n">
+      <c r="AJ33" s="0" t="n">
         <v>230070000.0</v>
       </c>
-      <c r="AJ33" s="0" t="n">
+      <c r="AK33" s="0" t="n">
         <v>230447000.0</v>
       </c>
-      <c r="AK33" s="0" t="n">
+      <c r="AL33" s="0" t="n">
         <v>230455000.0</v>
       </c>
-      <c r="AL33" s="0" t="n">
+      <c r="AM33" s="0" t="n">
         <v>230487000.0</v>
       </c>
-      <c r="AM33" s="0" t="n">
+      <c r="AN33" s="0" t="n">
         <v>231268000.0</v>
       </c>
-      <c r="AN33" s="0" t="n">
+      <c r="AO33" s="0" t="n">
         <v>233740000.0</v>
       </c>
     </row>
@@ -4389,14 +4491,14 @@
           <t/>
         </is>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G34" s="0" t="n">
         <v>304000.0</v>
       </c>
-      <c r="G34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="H34" s="0" t="inlineStr">
         <is>
           <t/>
@@ -4407,14 +4509,14 @@
           <t/>
         </is>
       </c>
-      <c r="J34" s="0" t="n">
+      <c r="J34" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K34" s="0" t="n">
         <v>304000.0</v>
       </c>
-      <c r="K34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="L34" s="0" t="inlineStr">
         <is>
           <t/>
@@ -4425,14 +4527,14 @@
           <t/>
         </is>
       </c>
-      <c r="N34" s="0" t="n">
+      <c r="N34" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O34" s="0" t="n">
         <v>304000.0</v>
       </c>
-      <c r="O34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="P34" s="0" t="inlineStr">
         <is>
           <t/>
@@ -4443,14 +4545,14 @@
           <t/>
         </is>
       </c>
-      <c r="R34" s="0" t="n">
+      <c r="R34" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S34" s="0" t="n">
         <v>304000.0</v>
       </c>
-      <c r="S34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T34" s="0" t="inlineStr">
         <is>
           <t/>
@@ -4461,14 +4563,14 @@
           <t/>
         </is>
       </c>
-      <c r="V34" s="0" t="n">
+      <c r="V34" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W34" s="0" t="n">
         <v>304000.0</v>
       </c>
-      <c r="W34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="X34" s="0" t="inlineStr">
         <is>
           <t/>
@@ -4479,14 +4581,14 @@
           <t/>
         </is>
       </c>
-      <c r="Z34" s="0" t="n">
+      <c r="Z34" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA34" s="0" t="n">
         <v>304000.0</v>
       </c>
-      <c r="AA34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AB34" s="0" t="inlineStr">
         <is>
           <t/>
@@ -4497,14 +4599,14 @@
           <t/>
         </is>
       </c>
-      <c r="AD34" s="0" t="n">
+      <c r="AD34" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE34" s="0" t="n">
         <v>304000.0</v>
       </c>
-      <c r="AE34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AF34" s="0" t="inlineStr">
         <is>
           <t/>
@@ -4515,14 +4617,14 @@
           <t/>
         </is>
       </c>
-      <c r="AH34" s="0" t="n">
+      <c r="AH34" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI34" s="0" t="n">
         <v>304000.0</v>
       </c>
-      <c r="AI34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AJ34" s="0" t="inlineStr">
         <is>
           <t/>
@@ -4533,15 +4635,20 @@
           <t/>
         </is>
       </c>
-      <c r="AL34" s="0" t="n">
+      <c r="AL34" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM34" s="0" t="n">
         <v>304000.0</v>
       </c>
-      <c r="AM34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AN34" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO34" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4554,120 +4661,123 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
+        <v>7914802000.0</v>
+      </c>
+      <c r="C35" s="0" t="n">
         <v>7609702000.0</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="D35" s="0" t="n">
         <v>7506300000.0</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="E35" s="0" t="n">
         <v>7439899000.0</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="F35" s="0" t="n">
         <v>7431800000.0</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="G35" s="0" t="n">
         <v>7201802000.0</v>
       </c>
-      <c r="G35" s="0" t="n">
+      <c r="H35" s="0" t="n">
         <v>7133599000.0</v>
       </c>
-      <c r="H35" s="0" t="n">
+      <c r="I35" s="0" t="n">
         <v>7095501000.0</v>
       </c>
-      <c r="I35" s="0" t="n">
+      <c r="J35" s="0" t="n">
         <v>7059302000.0</v>
-      </c>
-      <c r="J35" s="0" t="n">
-        <v>6789901000.0</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>6789901000.0</v>
       </c>
       <c r="L35" s="0" t="n">
+        <v>6789901000.0</v>
+      </c>
+      <c r="M35" s="0" t="n">
         <v>6703399000.0</v>
       </c>
-      <c r="M35" s="0" t="n">
+      <c r="N35" s="0" t="n">
         <v>6645399000.0</v>
       </c>
-      <c r="N35" s="0" t="n">
+      <c r="O35" s="0" t="n">
         <v>6438301000.0</v>
       </c>
-      <c r="O35" s="0" t="n">
+      <c r="P35" s="0" t="n">
         <v>6172199000.0</v>
       </c>
-      <c r="P35" s="0" t="n">
+      <c r="Q35" s="0" t="n">
         <v>6129699000.0</v>
       </c>
-      <c r="Q35" s="0" t="n">
+      <c r="R35" s="0" t="n">
         <v>6109800000.0</v>
       </c>
-      <c r="R35" s="0" t="n">
+      <c r="S35" s="0" t="n">
         <v>5913999000.0</v>
       </c>
-      <c r="S35" s="0" t="n">
+      <c r="T35" s="0" t="n">
         <v>5875700000.0</v>
       </c>
-      <c r="T35" s="0" t="n">
+      <c r="U35" s="0" t="n">
         <v>5817700000.0</v>
       </c>
-      <c r="U35" s="0" t="n">
+      <c r="V35" s="0" t="n">
         <v>5849599000.0</v>
       </c>
-      <c r="V35" s="0" t="n">
+      <c r="W35" s="0" t="n">
         <v>5661699000.0</v>
       </c>
-      <c r="W35" s="0" t="n">
+      <c r="X35" s="0" t="n">
         <v>5322300000.0</v>
       </c>
-      <c r="X35" s="0" t="n">
+      <c r="Y35" s="0" t="n">
         <v>5151699000.0</v>
       </c>
-      <c r="Y35" s="0" t="n">
+      <c r="Z35" s="0" t="n">
         <v>4099100000.0</v>
       </c>
-      <c r="Z35" s="0" t="n">
+      <c r="AA35" s="0" t="n">
         <v>4008200000.0</v>
       </c>
-      <c r="AA35" s="0" t="n">
+      <c r="AB35" s="0" t="n">
         <v>3986800000.0</v>
       </c>
-      <c r="AB35" s="0" t="n">
+      <c r="AC35" s="0" t="n">
         <v>3955600000.0</v>
       </c>
-      <c r="AC35" s="0" t="n">
+      <c r="AD35" s="0" t="n">
         <v>3910500000.0</v>
       </c>
-      <c r="AD35" s="0" t="n">
+      <c r="AE35" s="0" t="n">
         <v>3821500000.0</v>
       </c>
-      <c r="AE35" s="0" t="n">
+      <c r="AF35" s="0" t="n">
         <v>3786600000.0</v>
       </c>
-      <c r="AF35" s="0" t="n">
+      <c r="AG35" s="0" t="n">
         <v>3783900000.0</v>
       </c>
-      <c r="AG35" s="0" t="n">
+      <c r="AH35" s="0" t="n">
         <v>3792100000.0</v>
       </c>
-      <c r="AH35" s="0" t="n">
+      <c r="AI35" s="0" t="n">
         <v>3723600000.0</v>
       </c>
-      <c r="AI35" s="0" t="n">
+      <c r="AJ35" s="0" t="n">
         <v>3735701000.0</v>
       </c>
-      <c r="AJ35" s="0" t="n">
+      <c r="AK35" s="0" t="n">
         <v>3669600000.0</v>
       </c>
-      <c r="AK35" s="0" t="n">
+      <c r="AL35" s="0" t="n">
         <v>3640000000.0</v>
       </c>
-      <c r="AL35" s="0" t="n">
+      <c r="AM35" s="0" t="n">
         <v>3551799000.0</v>
       </c>
-      <c r="AM35" s="0" t="n">
+      <c r="AN35" s="0" t="n">
         <v>3529200000.0</v>
       </c>
-      <c r="AN35" s="0" t="n">
+      <c r="AO35" s="0" t="n">
         <v>3536100000.0</v>
       </c>
     </row>
@@ -4677,121 +4787,126 @@
           <t>Net Debt</t>
         </is>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C36" s="0" t="n">
         <v>14316000000.0</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="D36" s="0" t="n">
         <v>13007000000.0</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="E36" s="0" t="n">
         <v>12816000000.0</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="F36" s="0" t="n">
         <v>12702000000.0</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="G36" s="0" t="n">
         <v>12760000000.0</v>
       </c>
-      <c r="G36" s="0" t="n">
+      <c r="H36" s="0" t="n">
         <v>12256300000.0</v>
       </c>
-      <c r="H36" s="0" t="n">
+      <c r="I36" s="0" t="n">
         <v>11912300000.0</v>
       </c>
-      <c r="I36" s="0" t="n">
+      <c r="J36" s="0" t="n">
         <v>11807300000.0</v>
       </c>
-      <c r="J36" s="0" t="n">
+      <c r="K36" s="0" t="n">
         <v>11714600000.0</v>
       </c>
-      <c r="K36" s="0" t="n">
+      <c r="L36" s="0" t="n">
         <v>11262200000.0</v>
       </c>
-      <c r="L36" s="0" t="n">
+      <c r="M36" s="0" t="n">
         <v>10843000000.0</v>
       </c>
-      <c r="M36" s="0" t="n">
+      <c r="N36" s="0" t="n">
         <v>10727600000.0</v>
       </c>
-      <c r="N36" s="0" t="n">
+      <c r="O36" s="0" t="n">
         <v>10994400000.0</v>
       </c>
-      <c r="O36" s="0" t="n">
+      <c r="P36" s="0" t="n">
         <v>10470500000.0</v>
       </c>
-      <c r="P36" s="0" t="n">
+      <c r="Q36" s="0" t="n">
         <v>10246400000.0</v>
       </c>
-      <c r="Q36" s="0" t="n">
+      <c r="R36" s="0" t="n">
         <v>9926300000.0</v>
       </c>
-      <c r="R36" s="0" t="n">
+      <c r="S36" s="0" t="n">
         <v>10138100000.0</v>
       </c>
-      <c r="S36" s="0" t="n">
+      <c r="T36" s="0" t="n">
         <v>9941900000.0</v>
       </c>
-      <c r="T36" s="0" t="n">
+      <c r="U36" s="0" t="n">
         <v>9893600000.0</v>
       </c>
-      <c r="U36" s="0" t="n">
+      <c r="V36" s="0" t="n">
         <v>9969900000.0</v>
       </c>
-      <c r="V36" s="0" t="n">
+      <c r="W36" s="0" t="n">
         <v>10327000000.0</v>
       </c>
-      <c r="W36" s="0" t="n">
+      <c r="X36" s="0" t="n">
         <v>9972300000.0</v>
       </c>
-      <c r="X36" s="0" t="n">
+      <c r="Y36" s="0" t="n">
         <v>9767900000.0</v>
       </c>
-      <c r="Y36" s="0" t="n">
+      <c r="Z36" s="0" t="n">
         <v>5093800000.0</v>
       </c>
-      <c r="Z36" s="0" t="n">
+      <c r="AA36" s="0" t="n">
         <v>5150500000.0</v>
       </c>
-      <c r="AA36" s="0" t="n">
+      <c r="AB36" s="0" t="n">
         <v>5004400000.0</v>
       </c>
-      <c r="AB36" s="0" t="n">
+      <c r="AC36" s="0" t="n">
         <v>5009300000.0</v>
       </c>
-      <c r="AC36" s="0" t="n">
+      <c r="AD36" s="0" t="n">
         <v>5087200000.0</v>
       </c>
-      <c r="AD36" s="0" t="n">
+      <c r="AE36" s="0" t="n">
         <v>5216800000.0</v>
       </c>
-      <c r="AE36" s="0" t="n">
+      <c r="AF36" s="0" t="n">
         <v>5085200000.0</v>
       </c>
-      <c r="AF36" s="0" t="n">
+      <c r="AG36" s="0" t="n">
         <v>5112700000.0</v>
       </c>
-      <c r="AG36" s="0" t="n">
+      <c r="AH36" s="0" t="n">
         <v>5146500000.0</v>
       </c>
-      <c r="AH36" s="0" t="n">
+      <c r="AI36" s="0" t="n">
         <v>5224900000.0</v>
       </c>
-      <c r="AI36" s="0" t="n">
+      <c r="AJ36" s="0" t="n">
         <v>5052400000.0</v>
       </c>
-      <c r="AJ36" s="0" t="n">
+      <c r="AK36" s="0" t="n">
         <v>5160800000.0</v>
       </c>
-      <c r="AK36" s="0" t="n">
+      <c r="AL36" s="0" t="n">
         <v>5151100000.0</v>
       </c>
-      <c r="AL36" s="0" t="n">
+      <c r="AM36" s="0" t="n">
         <v>5257200000.0</v>
       </c>
-      <c r="AM36" s="0" t="n">
+      <c r="AN36" s="0" t="n">
         <v>5086800000.0</v>
       </c>
-      <c r="AN36" s="0" t="n">
+      <c r="AO36" s="0" t="n">
         <v>4851500000.0</v>
       </c>
     </row>
@@ -4801,121 +4916,126 @@
           <t>Total Debt</t>
         </is>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C37" s="0" t="n">
         <v>14341000000.0</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="D37" s="0" t="n">
         <v>13020000000.0</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="E37" s="0" t="n">
         <v>12829000000.0</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="F37" s="0" t="n">
         <v>12717000000.0</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="G37" s="0" t="n">
         <v>12798000000.0</v>
       </c>
-      <c r="G37" s="0" t="n">
+      <c r="H37" s="0" t="n">
         <v>12276300000.0</v>
       </c>
-      <c r="H37" s="0" t="n">
+      <c r="I37" s="0" t="n">
         <v>11950200000.0</v>
       </c>
-      <c r="I37" s="0" t="n">
+      <c r="J37" s="0" t="n">
         <v>11837900000.0</v>
       </c>
-      <c r="J37" s="0" t="n">
+      <c r="K37" s="0" t="n">
         <v>11799100000.0</v>
       </c>
-      <c r="K37" s="0" t="n">
+      <c r="L37" s="0" t="n">
         <v>11276700000.0</v>
       </c>
-      <c r="L37" s="0" t="n">
+      <c r="M37" s="0" t="n">
         <v>10872800000.0</v>
       </c>
-      <c r="M37" s="0" t="n">
+      <c r="N37" s="0" t="n">
         <v>10775700000.0</v>
       </c>
-      <c r="N37" s="0" t="n">
+      <c r="O37" s="0" t="n">
         <v>11033300000.0</v>
       </c>
-      <c r="O37" s="0" t="n">
+      <c r="P37" s="0" t="n">
         <v>10488600000.0</v>
       </c>
-      <c r="P37" s="0" t="n">
+      <c r="Q37" s="0" t="n">
         <v>10282900000.0</v>
       </c>
-      <c r="Q37" s="0" t="n">
+      <c r="R37" s="0" t="n">
         <v>9972000000.0</v>
       </c>
-      <c r="R37" s="0" t="n">
+      <c r="S37" s="0" t="n">
         <v>10175600000.0</v>
       </c>
-      <c r="S37" s="0" t="n">
+      <c r="T37" s="0" t="n">
         <v>9966900000.0</v>
       </c>
-      <c r="T37" s="0" t="n">
+      <c r="U37" s="0" t="n">
         <v>9925700000.0</v>
       </c>
-      <c r="U37" s="0" t="n">
+      <c r="V37" s="0" t="n">
         <v>10004600000.0</v>
       </c>
-      <c r="V37" s="0" t="n">
+      <c r="W37" s="0" t="n">
         <v>10376800000.0</v>
       </c>
-      <c r="W37" s="0" t="n">
+      <c r="X37" s="0" t="n">
         <v>9994500000.0</v>
       </c>
-      <c r="X37" s="0" t="n">
+      <c r="Y37" s="0" t="n">
         <v>9982300000.0</v>
       </c>
-      <c r="Y37" s="0" t="n">
+      <c r="Z37" s="0" t="n">
         <v>5159000000.0</v>
       </c>
-      <c r="Z37" s="0" t="n">
+      <c r="AA37" s="0" t="n">
         <v>5212400000.0</v>
       </c>
-      <c r="AA37" s="0" t="n">
+      <c r="AB37" s="0" t="n">
         <v>5093100000.0</v>
       </c>
-      <c r="AB37" s="0" t="n">
+      <c r="AC37" s="0" t="n">
         <v>5042700000.0</v>
       </c>
-      <c r="AC37" s="0" t="n">
+      <c r="AD37" s="0" t="n">
         <v>5114800000.0</v>
       </c>
-      <c r="AD37" s="0" t="n">
+      <c r="AE37" s="0" t="n">
         <v>5242800000.0</v>
       </c>
-      <c r="AE37" s="0" t="n">
+      <c r="AF37" s="0" t="n">
         <v>5103700000.0</v>
       </c>
-      <c r="AF37" s="0" t="n">
+      <c r="AG37" s="0" t="n">
         <v>5133700000.0</v>
       </c>
-      <c r="AG37" s="0" t="n">
+      <c r="AH37" s="0" t="n">
         <v>5171200000.0</v>
       </c>
-      <c r="AH37" s="0" t="n">
+      <c r="AI37" s="0" t="n">
         <v>5260500000.0</v>
       </c>
-      <c r="AI37" s="0" t="n">
+      <c r="AJ37" s="0" t="n">
         <v>5074900000.0</v>
       </c>
-      <c r="AJ37" s="0" t="n">
+      <c r="AK37" s="0" t="n">
         <v>5191800000.0</v>
       </c>
-      <c r="AK37" s="0" t="n">
+      <c r="AL37" s="0" t="n">
         <v>5193900000.0</v>
       </c>
-      <c r="AL37" s="0" t="n">
+      <c r="AM37" s="0" t="n">
         <v>5316800000.0</v>
       </c>
-      <c r="AM37" s="0" t="n">
+      <c r="AN37" s="0" t="n">
         <v>5147400000.0</v>
       </c>
-      <c r="AN37" s="0" t="n">
+      <c r="AO37" s="0" t="n">
         <v>4907600000.0</v>
       </c>
     </row>
